--- a/raw_data/20200818_saline/20200818_Sensor0_Test_58.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_58.xlsx
@@ -1,493 +1,909 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928A19DC-5C21-44B8-8CFC-16BE4F071560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>51302.952600</v>
+        <v>51302.952599999997</v>
       </c>
       <c r="B2" s="1">
-        <v>14.250820</v>
+        <v>14.250819999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>903.173000</v>
+        <v>903.173</v>
       </c>
       <c r="D2" s="1">
-        <v>-174.804000</v>
+        <v>-174.804</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>51313.379964</v>
@@ -496,103 +912,103 @@
         <v>14.253717</v>
       </c>
       <c r="H2" s="1">
-        <v>917.651000</v>
+        <v>917.65099999999995</v>
       </c>
       <c r="I2" s="1">
-        <v>-150.593000</v>
+        <v>-150.59299999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>51323.816322</v>
+        <v>51323.816321999999</v>
       </c>
       <c r="L2" s="1">
-        <v>14.256616</v>
+        <v>14.256615999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>939.160000</v>
+        <v>939.16</v>
       </c>
       <c r="N2" s="1">
-        <v>-111.847000</v>
+        <v>-111.84699999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>51334.641472</v>
+        <v>51334.641472000003</v>
       </c>
       <c r="Q2" s="1">
-        <v>14.259623</v>
+        <v>14.259622999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>946.185000</v>
+        <v>946.18499999999995</v>
       </c>
       <c r="S2" s="1">
-        <v>-99.004200</v>
+        <v>-99.004199999999997</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>51344.975152</v>
+        <v>51344.975151999999</v>
       </c>
       <c r="V2" s="1">
-        <v>14.262493</v>
+        <v>14.262492999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>953.486000</v>
+        <v>953.48599999999999</v>
       </c>
       <c r="X2" s="1">
-        <v>-87.392300</v>
+        <v>-87.392300000000006</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>51355.116820</v>
+        <v>51355.116820000003</v>
       </c>
       <c r="AA2" s="1">
-        <v>14.265310</v>
+        <v>14.265309999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>961.804000</v>
+        <v>961.80399999999997</v>
       </c>
       <c r="AC2" s="1">
-        <v>-79.483300</v>
+        <v>-79.4833</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>51364.974311</v>
+        <v>51364.974310999998</v>
       </c>
       <c r="AF2" s="1">
         <v>14.268048</v>
       </c>
       <c r="AG2" s="1">
-        <v>967.432000</v>
+        <v>967.43200000000002</v>
       </c>
       <c r="AH2" s="1">
-        <v>-79.645400</v>
+        <v>-79.645399999999995</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>51375.080835</v>
+        <v>51375.080835000001</v>
       </c>
       <c r="AK2" s="1">
         <v>14.270856</v>
       </c>
       <c r="AL2" s="1">
-        <v>975.694000</v>
+        <v>975.69399999999996</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.925800</v>
+        <v>-87.925799999999995</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>51385.550379</v>
@@ -601,210 +1017,210 @@
         <v>14.273764</v>
       </c>
       <c r="AQ2" s="1">
-        <v>985.165000</v>
+        <v>985.16499999999996</v>
       </c>
       <c r="AR2" s="1">
-        <v>-103.167000</v>
+        <v>-103.167</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>51396.112159</v>
+        <v>51396.112158999997</v>
       </c>
       <c r="AU2" s="1">
         <v>14.276698</v>
       </c>
       <c r="AV2" s="1">
-        <v>996.763000</v>
+        <v>996.76300000000003</v>
       </c>
       <c r="AW2" s="1">
-        <v>-125.019000</v>
+        <v>-125.01900000000001</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>51406.909567</v>
+        <v>51406.909567000002</v>
       </c>
       <c r="AZ2" s="1">
-        <v>14.279697</v>
+        <v>14.279697000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1006.580000</v>
+        <v>1006.58</v>
       </c>
       <c r="BB2" s="1">
-        <v>-143.926000</v>
+        <v>-143.92599999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>51417.913340</v>
+        <v>51417.913339999999</v>
       </c>
       <c r="BE2" s="1">
-        <v>14.282754</v>
+        <v>14.282754000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1052.400000</v>
+        <v>1052.4000000000001</v>
       </c>
       <c r="BG2" s="1">
-        <v>-229.338000</v>
+        <v>-229.33799999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>51428.938913</v>
+        <v>51428.938912999998</v>
       </c>
       <c r="BJ2" s="1">
-        <v>14.285816</v>
+        <v>14.285816000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1132.510000</v>
+        <v>1132.51</v>
       </c>
       <c r="BL2" s="1">
-        <v>-366.141000</v>
+        <v>-366.14100000000002</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>51440.061172</v>
+        <v>51440.061172000002</v>
       </c>
       <c r="BO2" s="1">
-        <v>14.288906</v>
+        <v>14.288906000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1264.730000</v>
+        <v>1264.73</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-577.373000</v>
+        <v>-577.37300000000005</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>51450.833781</v>
+        <v>51450.833781000001</v>
       </c>
       <c r="BT2" s="1">
         <v>14.291898</v>
       </c>
       <c r="BU2" s="1">
-        <v>1413.180000</v>
+        <v>1413.18</v>
       </c>
       <c r="BV2" s="1">
-        <v>-803.347000</v>
+        <v>-803.34699999999998</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>51461.846983</v>
+        <v>51461.846983000003</v>
       </c>
       <c r="BY2" s="1">
         <v>14.294957</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1575.380000</v>
+        <v>1575.38</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1039.080000</v>
+        <v>-1039.08</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>51473.044841</v>
+        <v>51473.044841000003</v>
       </c>
       <c r="CD2" s="1">
-        <v>14.298068</v>
+        <v>14.298068000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>1986.270000</v>
+        <v>1986.27</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1591.160000</v>
+        <v>-1591.16</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>51303.360295</v>
+        <v>51303.360294999999</v>
       </c>
       <c r="B3" s="1">
         <v>14.250933</v>
       </c>
       <c r="C3" s="1">
-        <v>903.034000</v>
+        <v>903.03399999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>-174.635000</v>
+        <v>-174.63499999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>51314.024298</v>
+        <v>51314.024297999997</v>
       </c>
       <c r="G3" s="1">
-        <v>14.253896</v>
+        <v>14.253895999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>917.389000</v>
+        <v>917.38900000000001</v>
       </c>
       <c r="I3" s="1">
-        <v>-150.572000</v>
+        <v>-150.572</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>51324.498781</v>
+        <v>51324.498781000002</v>
       </c>
       <c r="L3" s="1">
         <v>14.256805</v>
       </c>
       <c r="M3" s="1">
-        <v>939.081000</v>
+        <v>939.08100000000002</v>
       </c>
       <c r="N3" s="1">
-        <v>-111.892000</v>
+        <v>-111.892</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>51335.053646</v>
       </c>
       <c r="Q3" s="1">
-        <v>14.259737</v>
+        <v>14.259736999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>946.249000</v>
+        <v>946.24900000000002</v>
       </c>
       <c r="S3" s="1">
-        <v>-99.018300</v>
+        <v>-99.018299999999996</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>51345.320338</v>
+        <v>51345.320337999998</v>
       </c>
       <c r="V3" s="1">
         <v>14.262589</v>
       </c>
       <c r="W3" s="1">
-        <v>953.562000</v>
+        <v>953.56200000000001</v>
       </c>
       <c r="X3" s="1">
-        <v>-87.393000</v>
+        <v>-87.393000000000001</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>51355.470964</v>
@@ -813,13 +1229,13 @@
         <v>14.265409</v>
       </c>
       <c r="AB3" s="1">
-        <v>961.882000</v>
+        <v>961.88199999999995</v>
       </c>
       <c r="AC3" s="1">
-        <v>-79.516800</v>
+        <v>-79.516800000000003</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <v>51365.351766</v>
@@ -828,285 +1244,285 @@
         <v>14.268153</v>
       </c>
       <c r="AG3" s="1">
-        <v>967.315000</v>
+        <v>967.31500000000005</v>
       </c>
       <c r="AH3" s="1">
-        <v>-79.620000</v>
+        <v>-79.62</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>51375.466185</v>
+        <v>51375.466184999997</v>
       </c>
       <c r="AK3" s="1">
         <v>14.270963</v>
       </c>
       <c r="AL3" s="1">
-        <v>975.688000</v>
+        <v>975.68799999999999</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.919400</v>
+        <v>-87.919399999999996</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>51385.970987</v>
+        <v>51385.970987000001</v>
       </c>
       <c r="AP3" s="1">
-        <v>14.273881</v>
+        <v>14.273880999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>985.164000</v>
+        <v>985.16399999999999</v>
       </c>
       <c r="AR3" s="1">
-        <v>-103.189000</v>
+        <v>-103.18899999999999</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>51396.223261</v>
+        <v>51396.223260999999</v>
       </c>
       <c r="AU3" s="1">
         <v>14.276729</v>
       </c>
       <c r="AV3" s="1">
-        <v>996.776000</v>
+        <v>996.77599999999995</v>
       </c>
       <c r="AW3" s="1">
-        <v>-125.003000</v>
+        <v>-125.003</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>51407.346574</v>
+        <v>51407.346574000003</v>
       </c>
       <c r="AZ3" s="1">
-        <v>14.279818</v>
+        <v>14.279818000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1006.570000</v>
+        <v>1006.57</v>
       </c>
       <c r="BB3" s="1">
-        <v>-143.927000</v>
+        <v>-143.92699999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>51418.274897</v>
+        <v>51418.274897000003</v>
       </c>
       <c r="BE3" s="1">
         <v>14.282854</v>
       </c>
       <c r="BF3" s="1">
-        <v>1052.420000</v>
+        <v>1052.42</v>
       </c>
       <c r="BG3" s="1">
-        <v>-229.328000</v>
+        <v>-229.328</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>51429.313858</v>
+        <v>51429.313858000001</v>
       </c>
       <c r="BJ3" s="1">
         <v>14.285921</v>
       </c>
       <c r="BK3" s="1">
-        <v>1132.530000</v>
+        <v>1132.53</v>
       </c>
       <c r="BL3" s="1">
-        <v>-366.086000</v>
+        <v>-366.08600000000001</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>51440.500628</v>
+        <v>51440.500628000002</v>
       </c>
       <c r="BO3" s="1">
         <v>14.289028</v>
       </c>
       <c r="BP3" s="1">
-        <v>1264.700000</v>
+        <v>1264.7</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-577.389000</v>
+        <v>-577.38900000000001</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>51451.298533</v>
+        <v>51451.298533000001</v>
       </c>
       <c r="BT3" s="1">
-        <v>14.292027</v>
+        <v>14.292026999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>1413.240000</v>
+        <v>1413.24</v>
       </c>
       <c r="BV3" s="1">
-        <v>-803.498000</v>
+        <v>-803.49800000000005</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>51462.315670</v>
+        <v>51462.315670000004</v>
       </c>
       <c r="BY3" s="1">
         <v>14.295088</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1575.510000</v>
+        <v>1575.51</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1038.770000</v>
+        <v>-1038.77</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>51473.639370</v>
+        <v>51473.639369999997</v>
       </c>
       <c r="CD3" s="1">
         <v>14.298233</v>
       </c>
       <c r="CE3" s="1">
-        <v>1986.260000</v>
+        <v>1986.26</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1589.000000</v>
+        <v>-1589</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>51304.013514</v>
+        <v>51304.013513999998</v>
       </c>
       <c r="B4" s="1">
         <v>14.251115</v>
       </c>
       <c r="C4" s="1">
-        <v>903.075000</v>
+        <v>903.07500000000005</v>
       </c>
       <c r="D4" s="1">
-        <v>-174.793000</v>
+        <v>-174.79300000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>51314.413657</v>
+        <v>51314.413656999997</v>
       </c>
       <c r="G4" s="1">
         <v>14.254004</v>
       </c>
       <c r="H4" s="1">
-        <v>917.601000</v>
+        <v>917.601</v>
       </c>
       <c r="I4" s="1">
-        <v>-150.591000</v>
+        <v>-150.59100000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>51324.889133</v>
+        <v>51324.889132999997</v>
       </c>
       <c r="L4" s="1">
         <v>14.256914</v>
       </c>
       <c r="M4" s="1">
-        <v>939.192000</v>
+        <v>939.19200000000001</v>
       </c>
       <c r="N4" s="1">
-        <v>-111.776000</v>
+        <v>-111.776</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>51335.404318</v>
+        <v>51335.404318000001</v>
       </c>
       <c r="Q4" s="1">
-        <v>14.259835</v>
+        <v>14.259835000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>946.283000</v>
+        <v>946.28300000000002</v>
       </c>
       <c r="S4" s="1">
-        <v>-99.049000</v>
+        <v>-99.049000000000007</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>51345.664107</v>
+        <v>51345.664106999997</v>
       </c>
       <c r="V4" s="1">
         <v>14.262684</v>
       </c>
       <c r="W4" s="1">
-        <v>953.480000</v>
+        <v>953.48</v>
       </c>
       <c r="X4" s="1">
-        <v>-87.416300</v>
+        <v>-87.416300000000007</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>51355.819155</v>
+        <v>51355.819154999997</v>
       </c>
       <c r="AA4" s="1">
-        <v>14.265505</v>
+        <v>14.265504999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>961.841000</v>
+        <v>961.84100000000001</v>
       </c>
       <c r="AC4" s="1">
-        <v>-79.433300</v>
+        <v>-79.433300000000003</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>51365.769894</v>
+        <v>51365.769893999997</v>
       </c>
       <c r="AF4" s="1">
         <v>14.268269</v>
       </c>
       <c r="AG4" s="1">
-        <v>967.331000</v>
+        <v>967.33100000000002</v>
       </c>
       <c r="AH4" s="1">
-        <v>-79.630700</v>
+        <v>-79.630700000000004</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>51375.956233</v>
+        <v>51375.956232999997</v>
       </c>
       <c r="AK4" s="1">
         <v>14.271099</v>
       </c>
       <c r="AL4" s="1">
-        <v>975.687000</v>
+        <v>975.68700000000001</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.898100</v>
+        <v>-87.898099999999999</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>51386.310716</v>
@@ -1115,73 +1531,73 @@
         <v>14.273975</v>
       </c>
       <c r="AQ4" s="1">
-        <v>985.168000</v>
+        <v>985.16800000000001</v>
       </c>
       <c r="AR4" s="1">
-        <v>-103.200000</v>
+        <v>-103.2</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>51396.576909</v>
+        <v>51396.576909000003</v>
       </c>
       <c r="AU4" s="1">
-        <v>14.276827</v>
+        <v>14.276827000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>996.789000</v>
+        <v>996.78899999999999</v>
       </c>
       <c r="AW4" s="1">
-        <v>-125.000000</v>
+        <v>-125</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>51407.707134</v>
+        <v>51407.707133999997</v>
       </c>
       <c r="AZ4" s="1">
         <v>14.279919</v>
       </c>
       <c r="BA4" s="1">
-        <v>1006.550000</v>
+        <v>1006.55</v>
       </c>
       <c r="BB4" s="1">
-        <v>-143.935000</v>
+        <v>-143.935</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>51418.638989</v>
+        <v>51418.638988999999</v>
       </c>
       <c r="BE4" s="1">
-        <v>14.282955</v>
+        <v>14.282954999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1052.400000</v>
+        <v>1052.4000000000001</v>
       </c>
       <c r="BG4" s="1">
-        <v>-229.342000</v>
+        <v>-229.34200000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>51430.060376</v>
+        <v>51430.060376000001</v>
       </c>
       <c r="BJ4" s="1">
         <v>14.286128</v>
       </c>
       <c r="BK4" s="1">
-        <v>1132.490000</v>
+        <v>1132.49</v>
       </c>
       <c r="BL4" s="1">
-        <v>-366.130000</v>
+        <v>-366.13</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>51440.920243</v>
@@ -1190,75 +1606,75 @@
         <v>14.289145</v>
       </c>
       <c r="BP4" s="1">
-        <v>1264.710000</v>
+        <v>1264.71</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-577.373000</v>
+        <v>-577.37300000000005</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>51451.732532</v>
+        <v>51451.732532000002</v>
       </c>
       <c r="BT4" s="1">
-        <v>14.292148</v>
+        <v>14.292147999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>1413.220000</v>
+        <v>1413.22</v>
       </c>
       <c r="BV4" s="1">
-        <v>-803.499000</v>
+        <v>-803.49900000000002</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>51462.771031</v>
+        <v>51462.771030999997</v>
       </c>
       <c r="BY4" s="1">
         <v>14.295214</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1575.440000</v>
+        <v>1575.44</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1038.950000</v>
+        <v>-1038.95</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>51474.175510</v>
+        <v>51474.175510000001</v>
       </c>
       <c r="CD4" s="1">
         <v>14.298382</v>
       </c>
       <c r="CE4" s="1">
-        <v>1985.520000</v>
+        <v>1985.52</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1591.010000</v>
+        <v>-1591.01</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>51304.382079</v>
+        <v>51304.382079000003</v>
       </c>
       <c r="B5" s="1">
         <v>14.251217</v>
       </c>
       <c r="C5" s="1">
-        <v>903.108000</v>
+        <v>903.10799999999995</v>
       </c>
       <c r="D5" s="1">
-        <v>-174.907000</v>
+        <v>-174.90700000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>51314.756857</v>
@@ -1267,315 +1683,315 @@
         <v>14.254099</v>
       </c>
       <c r="H5" s="1">
-        <v>917.732000</v>
+        <v>917.73199999999997</v>
       </c>
       <c r="I5" s="1">
-        <v>-150.656000</v>
+        <v>-150.65600000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>51325.231371</v>
+        <v>51325.231371000002</v>
       </c>
       <c r="L5" s="1">
         <v>14.257009</v>
       </c>
       <c r="M5" s="1">
-        <v>939.094000</v>
+        <v>939.09400000000005</v>
       </c>
       <c r="N5" s="1">
-        <v>-112.067000</v>
+        <v>-112.06699999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>51335.752509</v>
+        <v>51335.752508999998</v>
       </c>
       <c r="Q5" s="1">
         <v>14.259931</v>
       </c>
       <c r="R5" s="1">
-        <v>946.272000</v>
+        <v>946.27200000000005</v>
       </c>
       <c r="S5" s="1">
-        <v>-99.067000</v>
+        <v>-99.066999999999993</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>51346.080736</v>
+        <v>51346.080736000004</v>
       </c>
       <c r="V5" s="1">
-        <v>14.262800</v>
+        <v>14.2628</v>
       </c>
       <c r="W5" s="1">
-        <v>953.520000</v>
+        <v>953.52</v>
       </c>
       <c r="X5" s="1">
-        <v>-87.386800</v>
+        <v>-87.386799999999994</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>51356.240290</v>
+        <v>51356.240290000002</v>
       </c>
       <c r="AA5" s="1">
         <v>14.265622</v>
       </c>
       <c r="AB5" s="1">
-        <v>961.796000</v>
+        <v>961.79600000000005</v>
       </c>
       <c r="AC5" s="1">
-        <v>-79.540500</v>
+        <v>-79.540499999999994</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>51366.040251</v>
+        <v>51366.040250999999</v>
       </c>
       <c r="AF5" s="1">
         <v>14.268345</v>
       </c>
       <c r="AG5" s="1">
-        <v>967.276000</v>
+        <v>967.27599999999995</v>
       </c>
       <c r="AH5" s="1">
-        <v>-79.652400</v>
+        <v>-79.6524</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>51376.183400</v>
+        <v>51376.183400000002</v>
       </c>
       <c r="AK5" s="1">
         <v>14.271162</v>
       </c>
       <c r="AL5" s="1">
-        <v>975.683000</v>
+        <v>975.68299999999999</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.945900</v>
+        <v>-87.945899999999995</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>51386.669161</v>
+        <v>51386.669160999998</v>
       </c>
       <c r="AP5" s="1">
         <v>14.274075</v>
       </c>
       <c r="AQ5" s="1">
-        <v>985.147000</v>
+        <v>985.14700000000005</v>
       </c>
       <c r="AR5" s="1">
-        <v>-103.183000</v>
+        <v>-103.18300000000001</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>51396.939980</v>
+        <v>51396.939980000003</v>
       </c>
       <c r="AU5" s="1">
         <v>14.276928</v>
       </c>
       <c r="AV5" s="1">
-        <v>996.773000</v>
+        <v>996.77300000000002</v>
       </c>
       <c r="AW5" s="1">
-        <v>-125.004000</v>
+        <v>-125.004</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>51408.065278</v>
+        <v>51408.065278000002</v>
       </c>
       <c r="AZ5" s="1">
         <v>14.280018</v>
       </c>
       <c r="BA5" s="1">
-        <v>1006.570000</v>
+        <v>1006.57</v>
       </c>
       <c r="BB5" s="1">
-        <v>-143.952000</v>
+        <v>-143.952</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>51419.367087</v>
+        <v>51419.367086999999</v>
       </c>
       <c r="BE5" s="1">
         <v>14.283158</v>
       </c>
       <c r="BF5" s="1">
-        <v>1052.380000</v>
+        <v>1052.3800000000001</v>
       </c>
       <c r="BG5" s="1">
-        <v>-229.359000</v>
+        <v>-229.35900000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>51430.437793</v>
+        <v>51430.437792999997</v>
       </c>
       <c r="BJ5" s="1">
-        <v>14.286233</v>
+        <v>14.286232999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1132.540000</v>
+        <v>1132.54</v>
       </c>
       <c r="BL5" s="1">
-        <v>-366.144000</v>
+        <v>-366.14400000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>51441.317042</v>
+        <v>51441.317042000002</v>
       </c>
       <c r="BO5" s="1">
-        <v>14.289255</v>
+        <v>14.289255000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1264.650000</v>
+        <v>1264.6500000000001</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-577.403000</v>
+        <v>-577.40300000000002</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>51452.144226</v>
+        <v>51452.144225999997</v>
       </c>
       <c r="BT5" s="1">
-        <v>14.292262</v>
+        <v>14.292261999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>1413.240000</v>
+        <v>1413.24</v>
       </c>
       <c r="BV5" s="1">
-        <v>-803.469000</v>
+        <v>-803.46900000000005</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>51463.538842</v>
+        <v>51463.538842000002</v>
       </c>
       <c r="BY5" s="1">
         <v>14.295427</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1575.490000</v>
+        <v>1575.49</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1039.070000</v>
+        <v>-1039.07</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>51475.035574</v>
+        <v>51475.035574000001</v>
       </c>
       <c r="CD5" s="1">
-        <v>14.298621</v>
+        <v>14.298621000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>1985.610000</v>
+        <v>1985.61</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1589.300000</v>
+        <v>-1589.3</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>51304.724776</v>
+        <v>51304.724776000003</v>
       </c>
       <c r="B6" s="1">
         <v>14.251312</v>
       </c>
       <c r="C6" s="1">
-        <v>903.141000</v>
+        <v>903.14099999999996</v>
       </c>
       <c r="D6" s="1">
-        <v>-174.924000</v>
+        <v>-174.92400000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>51315.102074</v>
+        <v>51315.102074000002</v>
       </c>
       <c r="G6" s="1">
-        <v>14.254195</v>
+        <v>14.254194999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>917.413000</v>
+        <v>917.41300000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>-150.503000</v>
+        <v>-150.50299999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>51325.834507</v>
       </c>
       <c r="L6" s="1">
-        <v>14.257176</v>
+        <v>14.257175999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>938.966000</v>
+        <v>938.96600000000001</v>
       </c>
       <c r="N6" s="1">
-        <v>-111.822000</v>
+        <v>-111.822</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>51336.172653</v>
+        <v>51336.172653000001</v>
       </c>
       <c r="Q6" s="1">
-        <v>14.260048</v>
+        <v>14.260047999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>946.246000</v>
+        <v>946.24599999999998</v>
       </c>
       <c r="S6" s="1">
-        <v>-99.076700</v>
+        <v>-99.076700000000002</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>51346.359983</v>
+        <v>51346.359983000002</v>
       </c>
       <c r="V6" s="1">
-        <v>14.262878</v>
+        <v>14.262878000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>953.627000</v>
+        <v>953.62699999999995</v>
       </c>
       <c r="X6" s="1">
-        <v>-87.437300</v>
+        <v>-87.437299999999993</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>51356.515538</v>
@@ -1584,103 +2000,103 @@
         <v>14.265699</v>
       </c>
       <c r="AB6" s="1">
-        <v>961.894000</v>
+        <v>961.89400000000001</v>
       </c>
       <c r="AC6" s="1">
-        <v>-79.469700</v>
+        <v>-79.469700000000003</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>51366.386918</v>
+        <v>51366.386917999997</v>
       </c>
       <c r="AF6" s="1">
-        <v>14.268441</v>
+        <v>14.268440999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>967.134000</v>
+        <v>967.13400000000001</v>
       </c>
       <c r="AH6" s="1">
-        <v>-79.667600</v>
+        <v>-79.667599999999993</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>51376.534071</v>
+        <v>51376.534071000002</v>
       </c>
       <c r="AK6" s="1">
-        <v>14.271259</v>
+        <v>14.271259000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>975.688000</v>
+        <v>975.68799999999999</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.931800</v>
+        <v>-87.931799999999996</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>51387.031898</v>
+        <v>51387.031898000001</v>
       </c>
       <c r="AP6" s="1">
-        <v>14.274176</v>
+        <v>14.274176000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>985.170000</v>
+        <v>985.17</v>
       </c>
       <c r="AR6" s="1">
-        <v>-103.186000</v>
+        <v>-103.18600000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>51397.669633</v>
+        <v>51397.669632999998</v>
       </c>
       <c r="AU6" s="1">
-        <v>14.277130</v>
+        <v>14.27713</v>
       </c>
       <c r="AV6" s="1">
-        <v>996.763000</v>
+        <v>996.76300000000003</v>
       </c>
       <c r="AW6" s="1">
-        <v>-125.015000</v>
+        <v>-125.015</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>51408.784446</v>
+        <v>51408.784445999998</v>
       </c>
       <c r="AZ6" s="1">
         <v>14.280218</v>
       </c>
       <c r="BA6" s="1">
-        <v>1006.610000</v>
+        <v>1006.61</v>
       </c>
       <c r="BB6" s="1">
-        <v>-143.957000</v>
+        <v>-143.95699999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>51419.745534</v>
+        <v>51419.745534000001</v>
       </c>
       <c r="BE6" s="1">
         <v>14.283263</v>
       </c>
       <c r="BF6" s="1">
-        <v>1052.400000</v>
+        <v>1052.4000000000001</v>
       </c>
       <c r="BG6" s="1">
-        <v>-229.360000</v>
+        <v>-229.36</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>51430.813296</v>
@@ -1689,76 +2105,76 @@
         <v>14.286337</v>
       </c>
       <c r="BK6" s="1">
-        <v>1132.510000</v>
+        <v>1132.51</v>
       </c>
       <c r="BL6" s="1">
-        <v>-366.110000</v>
+        <v>-366.11</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>51441.740129</v>
+        <v>51441.740128999998</v>
       </c>
       <c r="BO6" s="1">
         <v>14.289372</v>
       </c>
       <c r="BP6" s="1">
-        <v>1264.610000</v>
+        <v>1264.6099999999999</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-577.410000</v>
+        <v>-577.41</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>51452.876835</v>
+        <v>51452.876835000003</v>
       </c>
       <c r="BT6" s="1">
-        <v>14.292466</v>
+        <v>14.292465999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>1413.150000</v>
+        <v>1413.15</v>
       </c>
       <c r="BV6" s="1">
-        <v>-803.587000</v>
+        <v>-803.58699999999999</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>51463.653414</v>
       </c>
       <c r="BY6" s="1">
-        <v>14.295459</v>
+        <v>14.295458999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1575.540000</v>
+        <v>1575.54</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1038.970000</v>
+        <v>-1038.97</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>51475.256789</v>
+        <v>51475.256788999999</v>
       </c>
       <c r="CD6" s="1">
-        <v>14.298682</v>
+        <v>14.298681999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>1986.020000</v>
+        <v>1986.02</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1589.370000</v>
+        <v>-1589.37</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>51305.066519</v>
       </c>
@@ -1766,450 +2182,450 @@
         <v>14.251407</v>
       </c>
       <c r="C7" s="1">
-        <v>903.092000</v>
+        <v>903.09199999999998</v>
       </c>
       <c r="D7" s="1">
-        <v>-174.832000</v>
+        <v>-174.83199999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>51315.529169</v>
+        <v>51315.529169000001</v>
       </c>
       <c r="G7" s="1">
-        <v>14.254314</v>
+        <v>14.254314000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>917.981000</v>
+        <v>917.98099999999999</v>
       </c>
       <c r="I7" s="1">
-        <v>-150.011000</v>
+        <v>-150.011</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>51325.942138</v>
+        <v>51325.942137999999</v>
       </c>
       <c r="L7" s="1">
         <v>14.257206</v>
       </c>
       <c r="M7" s="1">
-        <v>939.189000</v>
+        <v>939.18899999999996</v>
       </c>
       <c r="N7" s="1">
-        <v>-111.763000</v>
+        <v>-111.76300000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>51336.461294</v>
+        <v>51336.461294000001</v>
       </c>
       <c r="Q7" s="1">
         <v>14.260128</v>
       </c>
       <c r="R7" s="1">
-        <v>946.256000</v>
+        <v>946.25599999999997</v>
       </c>
       <c r="S7" s="1">
-        <v>-99.059900</v>
+        <v>-99.059899999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>51346.703218</v>
+        <v>51346.703218000002</v>
       </c>
       <c r="V7" s="1">
-        <v>14.262973</v>
+        <v>14.262973000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>953.523000</v>
+        <v>953.52300000000002</v>
       </c>
       <c r="X7" s="1">
-        <v>-87.386500</v>
+        <v>-87.386499999999998</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>51356.867238</v>
+        <v>51356.867237999999</v>
       </c>
       <c r="AA7" s="1">
         <v>14.265796</v>
       </c>
       <c r="AB7" s="1">
-        <v>961.842000</v>
+        <v>961.84199999999998</v>
       </c>
       <c r="AC7" s="1">
-        <v>-79.430000</v>
+        <v>-79.430000000000007</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>51366.727703</v>
+        <v>51366.727702999997</v>
       </c>
       <c r="AF7" s="1">
         <v>14.268535</v>
       </c>
       <c r="AG7" s="1">
-        <v>967.286000</v>
+        <v>967.28599999999994</v>
       </c>
       <c r="AH7" s="1">
-        <v>-79.588900</v>
+        <v>-79.588899999999995</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>51377.225033</v>
+        <v>51377.225033000002</v>
       </c>
       <c r="AK7" s="1">
-        <v>14.271451</v>
+        <v>14.271451000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>975.678000</v>
+        <v>975.678</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.910300</v>
+        <v>-87.910300000000007</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>51387.750602</v>
       </c>
       <c r="AP7" s="1">
-        <v>14.274375</v>
+        <v>14.274374999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>985.143000</v>
+        <v>985.14300000000003</v>
       </c>
       <c r="AR7" s="1">
-        <v>-103.179000</v>
+        <v>-103.179</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>51398.059947</v>
+        <v>51398.059947000002</v>
       </c>
       <c r="AU7" s="1">
         <v>14.277239</v>
       </c>
       <c r="AV7" s="1">
-        <v>996.785000</v>
+        <v>996.78499999999997</v>
       </c>
       <c r="AW7" s="1">
-        <v>-125.006000</v>
+        <v>-125.006</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>51409.141564</v>
+        <v>51409.141563999998</v>
       </c>
       <c r="AZ7" s="1">
         <v>14.280317</v>
       </c>
       <c r="BA7" s="1">
-        <v>1006.570000</v>
+        <v>1006.57</v>
       </c>
       <c r="BB7" s="1">
-        <v>-143.936000</v>
+        <v>-143.93600000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>51420.109103</v>
+        <v>51420.109103000003</v>
       </c>
       <c r="BE7" s="1">
-        <v>14.283364</v>
+        <v>14.283364000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1052.410000</v>
+        <v>1052.4100000000001</v>
       </c>
       <c r="BG7" s="1">
-        <v>-229.363000</v>
+        <v>-229.363</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
         <v>51431.491791</v>
       </c>
       <c r="BJ7" s="1">
-        <v>14.286525</v>
+        <v>14.286524999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1132.500000</v>
+        <v>1132.5</v>
       </c>
       <c r="BL7" s="1">
-        <v>-366.122000</v>
+        <v>-366.12200000000001</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>51442.439520</v>
+        <v>51442.43952</v>
       </c>
       <c r="BO7" s="1">
         <v>14.289567</v>
       </c>
       <c r="BP7" s="1">
-        <v>1264.670000</v>
+        <v>1264.67</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-577.426000</v>
+        <v>-577.42600000000004</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>51453.000803</v>
+        <v>51453.000803000003</v>
       </c>
       <c r="BT7" s="1">
-        <v>14.292500</v>
+        <v>14.2925</v>
       </c>
       <c r="BU7" s="1">
-        <v>1413.120000</v>
+        <v>1413.12</v>
       </c>
       <c r="BV7" s="1">
-        <v>-803.601000</v>
+        <v>-803.601</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
         <v>51464.079973</v>
       </c>
       <c r="BY7" s="1">
-        <v>14.295578</v>
+        <v>14.295578000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1575.420000</v>
+        <v>1575.42</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1038.960000</v>
+        <v>-1038.96</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>51475.775142</v>
+        <v>51475.775141999999</v>
       </c>
       <c r="CD7" s="1">
         <v>14.298826</v>
       </c>
       <c r="CE7" s="1">
-        <v>1985.030000</v>
+        <v>1985.03</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1590.800000</v>
+        <v>-1590.8</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>51305.490101</v>
+        <v>51305.490101000003</v>
       </c>
       <c r="B8" s="1">
-        <v>14.251525</v>
+        <v>14.251525000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>903.101000</v>
+        <v>903.101</v>
       </c>
       <c r="D8" s="1">
-        <v>-174.980000</v>
+        <v>-174.98</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>51315.808871</v>
+        <v>51315.808871000001</v>
       </c>
       <c r="G8" s="1">
         <v>14.254391</v>
       </c>
       <c r="H8" s="1">
-        <v>917.342000</v>
+        <v>917.34199999999998</v>
       </c>
       <c r="I8" s="1">
-        <v>-150.520000</v>
+        <v>-150.52000000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>51326.270531</v>
+        <v>51326.270531000002</v>
       </c>
       <c r="L8" s="1">
-        <v>14.257297</v>
+        <v>14.257296999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>939.052000</v>
+        <v>939.05200000000002</v>
       </c>
       <c r="N8" s="1">
-        <v>-111.829000</v>
+        <v>-111.82899999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>51336.810972</v>
+        <v>51336.810971999999</v>
       </c>
       <c r="Q8" s="1">
         <v>14.260225</v>
       </c>
       <c r="R8" s="1">
-        <v>946.223000</v>
+        <v>946.22299999999996</v>
       </c>
       <c r="S8" s="1">
-        <v>-99.027100</v>
+        <v>-99.027100000000004</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>51347.048430</v>
+        <v>51347.048430000003</v>
       </c>
       <c r="V8" s="1">
         <v>14.263069</v>
       </c>
       <c r="W8" s="1">
-        <v>953.492000</v>
+        <v>953.49199999999996</v>
       </c>
       <c r="X8" s="1">
-        <v>-87.396000</v>
+        <v>-87.396000000000001</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>51357.219361</v>
+        <v>51357.219361000003</v>
       </c>
       <c r="AA8" s="1">
-        <v>14.265894</v>
+        <v>14.265893999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>961.812000</v>
+        <v>961.81200000000001</v>
       </c>
       <c r="AC8" s="1">
-        <v>-79.506000</v>
+        <v>-79.506</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>51367.413171</v>
       </c>
       <c r="AF8" s="1">
-        <v>14.268726</v>
+        <v>14.268725999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>967.296000</v>
+        <v>967.29600000000005</v>
       </c>
       <c r="AH8" s="1">
-        <v>-79.605200</v>
+        <v>-79.605199999999996</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>51377.576662</v>
+        <v>51377.576661999999</v>
       </c>
       <c r="AK8" s="1">
         <v>14.271549</v>
       </c>
       <c r="AL8" s="1">
-        <v>975.687000</v>
+        <v>975.68700000000001</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.894800</v>
+        <v>-87.894800000000004</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>51388.111192</v>
+        <v>51388.111191999997</v>
       </c>
       <c r="AP8" s="1">
-        <v>14.274475</v>
+        <v>14.274475000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>985.143000</v>
+        <v>985.14300000000003</v>
       </c>
       <c r="AR8" s="1">
-        <v>-103.181000</v>
+        <v>-103.181</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>51398.424542</v>
+        <v>51398.424542000001</v>
       </c>
       <c r="AU8" s="1">
-        <v>14.277340</v>
+        <v>14.277340000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>996.797000</v>
+        <v>996.79700000000003</v>
       </c>
       <c r="AW8" s="1">
-        <v>-124.993000</v>
+        <v>-124.99299999999999</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>51409.500669</v>
+        <v>51409.500669000001</v>
       </c>
       <c r="AZ8" s="1">
         <v>14.280417</v>
       </c>
       <c r="BA8" s="1">
-        <v>1006.560000</v>
+        <v>1006.56</v>
       </c>
       <c r="BB8" s="1">
-        <v>-143.951000</v>
+        <v>-143.95099999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>51420.776262</v>
+        <v>51420.776261999999</v>
       </c>
       <c r="BE8" s="1">
-        <v>14.283549</v>
+        <v>14.283549000000001</v>
       </c>
       <c r="BF8" s="1">
-        <v>1052.400000</v>
+        <v>1052.4000000000001</v>
       </c>
       <c r="BG8" s="1">
-        <v>-229.327000</v>
+        <v>-229.327</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>51431.600446</v>
+        <v>51431.600445999997</v>
       </c>
       <c r="BJ8" s="1">
-        <v>14.286556</v>
+        <v>14.286555999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1132.530000</v>
+        <v>1132.53</v>
       </c>
       <c r="BL8" s="1">
-        <v>-366.135000</v>
+        <v>-366.13499999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>51442.569936</v>
@@ -2218,75 +2634,75 @@
         <v>14.289603</v>
       </c>
       <c r="BP8" s="1">
-        <v>1264.640000</v>
+        <v>1264.6400000000001</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-577.415000</v>
+        <v>-577.41499999999996</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>51453.413179</v>
+        <v>51453.413179000003</v>
       </c>
       <c r="BT8" s="1">
         <v>14.292615</v>
       </c>
       <c r="BU8" s="1">
-        <v>1413.140000</v>
+        <v>1413.14</v>
       </c>
       <c r="BV8" s="1">
-        <v>-803.652000</v>
+        <v>-803.65200000000004</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>51464.498602</v>
       </c>
       <c r="BY8" s="1">
-        <v>14.295694</v>
+        <v>14.295693999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1575.360000</v>
+        <v>1575.36</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1038.950000</v>
+        <v>-1038.95</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>51476.290453</v>
+        <v>51476.290453000001</v>
       </c>
       <c r="CD8" s="1">
-        <v>14.298970</v>
+        <v>14.298970000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>1986.770000</v>
+        <v>1986.77</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1591.170000</v>
+        <v>-1591.17</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>51305.765413</v>
+        <v>51305.765413000001</v>
       </c>
       <c r="B9" s="1">
         <v>14.251602</v>
       </c>
       <c r="C9" s="1">
-        <v>903.044000</v>
+        <v>903.04399999999998</v>
       </c>
       <c r="D9" s="1">
-        <v>-174.816000</v>
+        <v>-174.816</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>51316.148664</v>
@@ -2295,874 +2711,874 @@
         <v>14.254486</v>
       </c>
       <c r="H9" s="1">
-        <v>917.607000</v>
+        <v>917.60699999999997</v>
       </c>
       <c r="I9" s="1">
-        <v>-150.386000</v>
+        <v>-150.386</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>51326.617721</v>
+        <v>51326.617721000002</v>
       </c>
       <c r="L9" s="1">
         <v>14.257394</v>
       </c>
       <c r="M9" s="1">
-        <v>939.036000</v>
+        <v>939.03599999999994</v>
       </c>
       <c r="N9" s="1">
-        <v>-111.999000</v>
+        <v>-111.999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>51337.159659</v>
+        <v>51337.159658999997</v>
       </c>
       <c r="Q9" s="1">
         <v>14.260322</v>
       </c>
       <c r="R9" s="1">
-        <v>946.236000</v>
+        <v>946.23599999999999</v>
       </c>
       <c r="S9" s="1">
-        <v>-99.041200</v>
+        <v>-99.041200000000003</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>51347.733375</v>
+        <v>51347.733375000003</v>
       </c>
       <c r="V9" s="1">
         <v>14.263259</v>
       </c>
       <c r="W9" s="1">
-        <v>953.512000</v>
+        <v>953.51199999999994</v>
       </c>
       <c r="X9" s="1">
-        <v>-87.321500</v>
+        <v>-87.3215</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>51357.913760</v>
+        <v>51357.913760000003</v>
       </c>
       <c r="AA9" s="1">
-        <v>14.266087</v>
+        <v>14.266087000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>961.744000</v>
+        <v>961.74400000000003</v>
       </c>
       <c r="AC9" s="1">
-        <v>-79.425500</v>
+        <v>-79.4255</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>51367.758356</v>
+        <v>51367.758355999998</v>
       </c>
       <c r="AF9" s="1">
         <v>14.268822</v>
       </c>
       <c r="AG9" s="1">
-        <v>967.214000</v>
+        <v>967.21400000000006</v>
       </c>
       <c r="AH9" s="1">
-        <v>-79.709500</v>
+        <v>-79.709500000000006</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>51377.926837</v>
+        <v>51377.926836999999</v>
       </c>
       <c r="AK9" s="1">
         <v>14.271646</v>
       </c>
       <c r="AL9" s="1">
-        <v>975.729000</v>
+        <v>975.72900000000004</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.995700</v>
+        <v>-87.995699999999999</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>51388.468810</v>
+        <v>51388.468809999998</v>
       </c>
       <c r="AP9" s="1">
         <v>14.274575</v>
       </c>
       <c r="AQ9" s="1">
-        <v>985.163000</v>
+        <v>985.16300000000001</v>
       </c>
       <c r="AR9" s="1">
-        <v>-103.183000</v>
+        <v>-103.18300000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>51399.094603</v>
+        <v>51399.094602999998</v>
       </c>
       <c r="AU9" s="1">
         <v>14.277526</v>
       </c>
       <c r="AV9" s="1">
-        <v>996.796000</v>
+        <v>996.79600000000005</v>
       </c>
       <c r="AW9" s="1">
-        <v>-125.015000</v>
+        <v>-125.015</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>51410.165344</v>
+        <v>51410.165344000001</v>
       </c>
       <c r="AZ9" s="1">
-        <v>14.280601</v>
+        <v>14.280601000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1006.560000</v>
+        <v>1006.56</v>
       </c>
       <c r="BB9" s="1">
-        <v>-143.948000</v>
+        <v>-143.94800000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>51421.220637</v>
+        <v>51421.220636999999</v>
       </c>
       <c r="BE9" s="1">
-        <v>14.283672</v>
+        <v>14.283671999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1052.400000</v>
+        <v>1052.4000000000001</v>
       </c>
       <c r="BG9" s="1">
-        <v>-229.391000</v>
+        <v>-229.39099999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>51431.968479</v>
+        <v>51431.968479000003</v>
       </c>
       <c r="BJ9" s="1">
-        <v>14.286658</v>
+        <v>14.286657999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1132.510000</v>
+        <v>1132.51</v>
       </c>
       <c r="BL9" s="1">
-        <v>-366.160000</v>
+        <v>-366.16</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>51442.982607</v>
+        <v>51442.982606999998</v>
       </c>
       <c r="BO9" s="1">
         <v>14.289717</v>
       </c>
       <c r="BP9" s="1">
-        <v>1264.710000</v>
+        <v>1264.71</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-577.438000</v>
+        <v>-577.43799999999999</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>51453.843505</v>
+        <v>51453.843504999997</v>
       </c>
       <c r="BT9" s="1">
-        <v>14.292734</v>
+        <v>14.292733999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>1412.980000</v>
+        <v>1412.98</v>
       </c>
       <c r="BV9" s="1">
-        <v>-803.703000</v>
+        <v>-803.70299999999997</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>51464.943971</v>
+        <v>51464.943971000001</v>
       </c>
       <c r="BY9" s="1">
-        <v>14.295818</v>
+        <v>14.295818000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1575.410000</v>
+        <v>1575.41</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1039.130000</v>
+        <v>-1039.1300000000001</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>51476.813732</v>
+        <v>51476.813732000002</v>
       </c>
       <c r="CD9" s="1">
         <v>14.299115</v>
       </c>
       <c r="CE9" s="1">
-        <v>1987.070000</v>
+        <v>1987.07</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1590.090000</v>
+        <v>-1590.09</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>51306.107126</v>
+        <v>51306.107126000003</v>
       </c>
       <c r="B10" s="1">
-        <v>14.251696</v>
+        <v>14.251696000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>903.207000</v>
+        <v>903.20699999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>-174.748000</v>
+        <v>-174.74799999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>51316.496359</v>
+        <v>51316.496358999997</v>
       </c>
       <c r="G10" s="1">
-        <v>14.254582</v>
+        <v>14.254581999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>917.395000</v>
+        <v>917.39499999999998</v>
       </c>
       <c r="I10" s="1">
-        <v>-150.530000</v>
+        <v>-150.53</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>51327.311627</v>
+        <v>51327.311627000003</v>
       </c>
       <c r="L10" s="1">
-        <v>14.257587</v>
+        <v>14.257586999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>939.184000</v>
+        <v>939.18399999999997</v>
       </c>
       <c r="N10" s="1">
-        <v>-111.851000</v>
+        <v>-111.851</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>51337.858524</v>
+        <v>51337.858524000003</v>
       </c>
       <c r="Q10" s="1">
-        <v>14.260516</v>
+        <v>14.260516000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>946.294000</v>
+        <v>946.29399999999998</v>
       </c>
       <c r="S10" s="1">
-        <v>-99.029400</v>
+        <v>-99.029399999999995</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>51348.077629</v>
+        <v>51348.077628999999</v>
       </c>
       <c r="V10" s="1">
-        <v>14.263355</v>
+        <v>14.263355000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>953.466000</v>
+        <v>953.46600000000001</v>
       </c>
       <c r="X10" s="1">
-        <v>-87.230100</v>
+        <v>-87.230099999999993</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>51358.259472</v>
+        <v>51358.259471999998</v>
       </c>
       <c r="AA10" s="1">
         <v>14.266183</v>
       </c>
       <c r="AB10" s="1">
-        <v>961.765000</v>
+        <v>961.76499999999999</v>
       </c>
       <c r="AC10" s="1">
-        <v>-79.474300</v>
+        <v>-79.474299999999999</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>51368.106052</v>
+        <v>51368.106052000003</v>
       </c>
       <c r="AF10" s="1">
-        <v>14.268918</v>
+        <v>14.268917999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>967.258000</v>
+        <v>967.25800000000004</v>
       </c>
       <c r="AH10" s="1">
-        <v>-79.547900</v>
+        <v>-79.547899999999998</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>51378.809744</v>
+        <v>51378.809743999998</v>
       </c>
       <c r="AK10" s="1">
-        <v>14.271892</v>
+        <v>14.271891999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>975.697000</v>
+        <v>975.697</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.934300</v>
+        <v>-87.934299999999993</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>51389.146839</v>
+        <v>51389.146839000001</v>
       </c>
       <c r="AP10" s="1">
         <v>14.274763</v>
       </c>
       <c r="AQ10" s="1">
-        <v>985.174000</v>
+        <v>985.17399999999998</v>
       </c>
       <c r="AR10" s="1">
-        <v>-103.196000</v>
+        <v>-103.196</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>51399.553897</v>
+        <v>51399.553896999998</v>
       </c>
       <c r="AU10" s="1">
         <v>14.277654</v>
       </c>
       <c r="AV10" s="1">
-        <v>996.783000</v>
+        <v>996.78300000000002</v>
       </c>
       <c r="AW10" s="1">
-        <v>-124.992000</v>
+        <v>-124.992</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>51410.590380</v>
+        <v>51410.590380000001</v>
       </c>
       <c r="AZ10" s="1">
-        <v>14.280720</v>
+        <v>14.280720000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>1006.560000</v>
+        <v>1006.56</v>
       </c>
       <c r="BB10" s="1">
-        <v>-143.930000</v>
+        <v>-143.93</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>51421.584204</v>
+        <v>51421.584203999999</v>
       </c>
       <c r="BE10" s="1">
         <v>14.283773</v>
       </c>
       <c r="BF10" s="1">
-        <v>1052.410000</v>
+        <v>1052.4100000000001</v>
       </c>
       <c r="BG10" s="1">
-        <v>-229.338000</v>
+        <v>-229.33799999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>51432.343917</v>
+        <v>51432.343916999998</v>
       </c>
       <c r="BJ10" s="1">
         <v>14.286762</v>
       </c>
       <c r="BK10" s="1">
-        <v>1132.510000</v>
+        <v>1132.51</v>
       </c>
       <c r="BL10" s="1">
-        <v>-366.090000</v>
+        <v>-366.09</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>51443.380403</v>
+        <v>51443.380403000003</v>
       </c>
       <c r="BO10" s="1">
         <v>14.289828</v>
       </c>
       <c r="BP10" s="1">
-        <v>1264.680000</v>
+        <v>1264.68</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-577.404000</v>
+        <v>-577.404</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>51454.273538</v>
+        <v>51454.273538000001</v>
       </c>
       <c r="BT10" s="1">
         <v>14.292854</v>
       </c>
       <c r="BU10" s="1">
-        <v>1412.980000</v>
+        <v>1412.98</v>
       </c>
       <c r="BV10" s="1">
-        <v>-803.693000</v>
+        <v>-803.69299999999998</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>51465.367058</v>
+        <v>51465.367058000003</v>
       </c>
       <c r="BY10" s="1">
         <v>14.295935</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1575.520000</v>
+        <v>1575.52</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1039.050000</v>
+        <v>-1039.05</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>51477.330564</v>
+        <v>51477.330564000004</v>
       </c>
       <c r="CD10" s="1">
         <v>14.299258</v>
       </c>
       <c r="CE10" s="1">
-        <v>1986.950000</v>
+        <v>1986.95</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1590.010000</v>
+        <v>-1590.01</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>51306.450853</v>
+        <v>51306.450853000002</v>
       </c>
       <c r="B11" s="1">
         <v>14.251792</v>
       </c>
       <c r="C11" s="1">
-        <v>903.153000</v>
+        <v>903.15300000000002</v>
       </c>
       <c r="D11" s="1">
-        <v>-174.643000</v>
+        <v>-174.643</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>51317.183318</v>
+        <v>51317.183318000003</v>
       </c>
       <c r="G11" s="1">
         <v>14.254773</v>
       </c>
       <c r="H11" s="1">
-        <v>917.648000</v>
+        <v>917.64800000000002</v>
       </c>
       <c r="I11" s="1">
-        <v>-150.548000</v>
+        <v>-150.548</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>51327.657801</v>
+        <v>51327.657801000001</v>
       </c>
       <c r="L11" s="1">
         <v>14.257683</v>
       </c>
       <c r="M11" s="1">
-        <v>939.017000</v>
+        <v>939.01700000000005</v>
       </c>
       <c r="N11" s="1">
-        <v>-111.820000</v>
+        <v>-111.82</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>51338.206714</v>
       </c>
       <c r="Q11" s="1">
-        <v>14.260613</v>
+        <v>14.260612999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>946.248000</v>
+        <v>946.24800000000005</v>
       </c>
       <c r="S11" s="1">
-        <v>-99.041200</v>
+        <v>-99.041200000000003</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>51348.421827</v>
+        <v>51348.421826999998</v>
       </c>
       <c r="V11" s="1">
         <v>14.263451</v>
       </c>
       <c r="W11" s="1">
-        <v>953.593000</v>
+        <v>953.59299999999996</v>
       </c>
       <c r="X11" s="1">
-        <v>-87.327500</v>
+        <v>-87.327500000000001</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>51358.610639</v>
+        <v>51358.610638999999</v>
       </c>
       <c r="AA11" s="1">
-        <v>14.266281</v>
+        <v>14.266280999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>961.811000</v>
+        <v>961.81100000000004</v>
       </c>
       <c r="AC11" s="1">
-        <v>-79.483400</v>
+        <v>-79.483400000000003</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>51368.762754</v>
+        <v>51368.762754000003</v>
       </c>
       <c r="AF11" s="1">
-        <v>14.269101</v>
+        <v>14.269100999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>967.345000</v>
+        <v>967.34500000000003</v>
       </c>
       <c r="AH11" s="1">
-        <v>-79.653400</v>
+        <v>-79.653400000000005</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>51379.204067</v>
+        <v>51379.204066999999</v>
       </c>
       <c r="AK11" s="1">
-        <v>14.272001</v>
+        <v>14.272000999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>975.680000</v>
+        <v>975.68</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.913600</v>
+        <v>-87.913600000000002</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>51389.586295</v>
+        <v>51389.586295000001</v>
       </c>
       <c r="AP11" s="1">
-        <v>14.274885</v>
+        <v>14.274884999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>985.156000</v>
+        <v>985.15599999999995</v>
       </c>
       <c r="AR11" s="1">
-        <v>-103.210000</v>
+        <v>-103.21</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>51399.915501</v>
+        <v>51399.915501000003</v>
       </c>
       <c r="AU11" s="1">
         <v>14.277754</v>
       </c>
       <c r="AV11" s="1">
-        <v>996.776000</v>
+        <v>996.77599999999995</v>
       </c>
       <c r="AW11" s="1">
-        <v>-124.986000</v>
+        <v>-124.986</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>51410.935595</v>
+        <v>51410.935595000003</v>
       </c>
       <c r="AZ11" s="1">
         <v>14.280815</v>
       </c>
       <c r="BA11" s="1">
-        <v>1006.590000</v>
+        <v>1006.59</v>
       </c>
       <c r="BB11" s="1">
-        <v>-143.940000</v>
+        <v>-143.94</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>51421.944299</v>
+        <v>51421.944299000003</v>
       </c>
       <c r="BE11" s="1">
         <v>14.283873</v>
       </c>
       <c r="BF11" s="1">
-        <v>1052.400000</v>
+        <v>1052.4000000000001</v>
       </c>
       <c r="BG11" s="1">
-        <v>-229.373000</v>
+        <v>-229.37299999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>51432.752621</v>
       </c>
       <c r="BJ11" s="1">
-        <v>14.286876</v>
+        <v>14.286875999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1132.520000</v>
+        <v>1132.52</v>
       </c>
       <c r="BL11" s="1">
-        <v>-366.101000</v>
+        <v>-366.101</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>51443.804515</v>
+        <v>51443.804515000003</v>
       </c>
       <c r="BO11" s="1">
         <v>14.289946</v>
       </c>
       <c r="BP11" s="1">
-        <v>1264.650000</v>
+        <v>1264.6500000000001</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-577.413000</v>
+        <v>-577.41300000000001</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>51454.684758</v>
+        <v>51454.684758000003</v>
       </c>
       <c r="BT11" s="1">
         <v>14.292968</v>
       </c>
       <c r="BU11" s="1">
-        <v>1412.980000</v>
+        <v>1412.98</v>
       </c>
       <c r="BV11" s="1">
-        <v>-803.686000</v>
+        <v>-803.68600000000004</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>51465.789649</v>
+        <v>51465.789648999998</v>
       </c>
       <c r="BY11" s="1">
-        <v>14.296053</v>
+        <v>14.296053000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1575.590000</v>
+        <v>1575.59</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1038.970000</v>
+        <v>-1038.97</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>51477.917862</v>
+        <v>51477.917862000002</v>
       </c>
       <c r="CD11" s="1">
         <v>14.299422</v>
       </c>
       <c r="CE11" s="1">
-        <v>1986.670000</v>
+        <v>1986.67</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1591.320000</v>
+        <v>-1591.32</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>51307.133347</v>
+        <v>51307.133347000003</v>
       </c>
       <c r="B12" s="1">
-        <v>14.251981</v>
+        <v>14.251981000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>903.071000</v>
+        <v>903.07100000000003</v>
       </c>
       <c r="D12" s="1">
-        <v>-174.857000</v>
+        <v>-174.857</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>51317.529991</v>
+        <v>51317.529991000003</v>
       </c>
       <c r="G12" s="1">
-        <v>14.254869</v>
+        <v>14.254868999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>917.545000</v>
+        <v>917.54499999999996</v>
       </c>
       <c r="I12" s="1">
-        <v>-150.100000</v>
+        <v>-150.1</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>51328.002025</v>
+        <v>51328.002025000002</v>
       </c>
       <c r="L12" s="1">
         <v>14.257778</v>
       </c>
       <c r="M12" s="1">
-        <v>939.096000</v>
+        <v>939.096</v>
       </c>
       <c r="N12" s="1">
-        <v>-111.905000</v>
+        <v>-111.905</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>51338.553426</v>
+        <v>51338.553425999999</v>
       </c>
       <c r="Q12" s="1">
         <v>14.260709</v>
       </c>
       <c r="R12" s="1">
-        <v>946.230000</v>
+        <v>946.23</v>
       </c>
       <c r="S12" s="1">
-        <v>-99.050400</v>
+        <v>-99.050399999999996</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>51349.077531</v>
+        <v>51349.077531000003</v>
       </c>
       <c r="V12" s="1">
         <v>14.263633</v>
       </c>
       <c r="W12" s="1">
-        <v>953.570000</v>
+        <v>953.57</v>
       </c>
       <c r="X12" s="1">
-        <v>-87.355500</v>
+        <v>-87.355500000000006</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>51359.202862</v>
+        <v>51359.202861999998</v>
       </c>
       <c r="AA12" s="1">
-        <v>14.266445</v>
+        <v>14.266444999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>961.806000</v>
+        <v>961.80600000000004</v>
       </c>
       <c r="AC12" s="1">
-        <v>-79.535100</v>
+        <v>-79.5351</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>51369.134755</v>
+        <v>51369.134754999999</v>
       </c>
       <c r="AF12" s="1">
         <v>14.269204</v>
       </c>
       <c r="AG12" s="1">
-        <v>967.307000</v>
+        <v>967.30700000000002</v>
       </c>
       <c r="AH12" s="1">
-        <v>-79.625300</v>
+        <v>-79.625299999999996</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>51379.551772</v>
+        <v>51379.551771999999</v>
       </c>
       <c r="AK12" s="1">
         <v>14.272098</v>
       </c>
       <c r="AL12" s="1">
-        <v>975.687000</v>
+        <v>975.68700000000001</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.945200</v>
+        <v>-87.9452</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>51389.943949</v>
@@ -3171,285 +3587,285 @@
         <v>14.274984</v>
       </c>
       <c r="AQ12" s="1">
-        <v>985.148000</v>
+        <v>985.14800000000002</v>
       </c>
       <c r="AR12" s="1">
-        <v>-103.198000</v>
+        <v>-103.19799999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>51400.283512</v>
+        <v>51400.283512000002</v>
       </c>
       <c r="AU12" s="1">
-        <v>14.277857</v>
+        <v>14.277856999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>996.774000</v>
+        <v>996.774</v>
       </c>
       <c r="AW12" s="1">
-        <v>-124.991000</v>
+        <v>-124.991</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>51411.356203</v>
+        <v>51411.356203000003</v>
       </c>
       <c r="AZ12" s="1">
         <v>14.280932</v>
       </c>
       <c r="BA12" s="1">
-        <v>1006.600000</v>
+        <v>1006.6</v>
       </c>
       <c r="BB12" s="1">
-        <v>-143.943000</v>
+        <v>-143.94300000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>51422.349396</v>
+        <v>51422.349395999998</v>
       </c>
       <c r="BE12" s="1">
-        <v>14.283986</v>
+        <v>14.283986000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1052.410000</v>
+        <v>1052.4100000000001</v>
       </c>
       <c r="BG12" s="1">
-        <v>-229.324000</v>
+        <v>-229.32400000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>51433.095854</v>
+        <v>51433.095853999999</v>
       </c>
       <c r="BJ12" s="1">
-        <v>14.286971</v>
+        <v>14.286970999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1132.510000</v>
+        <v>1132.51</v>
       </c>
       <c r="BL12" s="1">
-        <v>-366.104000</v>
+        <v>-366.10399999999998</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>51444.196318</v>
+        <v>51444.196318000002</v>
       </c>
       <c r="BO12" s="1">
-        <v>14.290055</v>
+        <v>14.290055000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1264.650000</v>
+        <v>1264.6500000000001</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-577.437000</v>
+        <v>-577.43700000000001</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>51455.114289</v>
+        <v>51455.114288999997</v>
       </c>
       <c r="BT12" s="1">
         <v>14.293087</v>
       </c>
       <c r="BU12" s="1">
-        <v>1412.970000</v>
+        <v>1412.97</v>
       </c>
       <c r="BV12" s="1">
-        <v>-803.773000</v>
+        <v>-803.77300000000002</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>51466.236076</v>
+        <v>51466.236076000001</v>
       </c>
       <c r="BY12" s="1">
         <v>14.296177</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1575.510000</v>
+        <v>1575.51</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1039.080000</v>
+        <v>-1039.08</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>51478.538321</v>
       </c>
       <c r="CD12" s="1">
-        <v>14.299594</v>
+        <v>14.299594000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>1987.040000</v>
+        <v>1987.04</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1589.820000</v>
+        <v>-1589.82</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>51307.476261</v>
+        <v>51307.476261000003</v>
       </c>
       <c r="B13" s="1">
         <v>14.252077</v>
       </c>
       <c r="C13" s="1">
-        <v>903.185000</v>
+        <v>903.18499999999995</v>
       </c>
       <c r="D13" s="1">
-        <v>-174.714000</v>
+        <v>-174.714</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>51317.875702</v>
+        <v>51317.875701999998</v>
       </c>
       <c r="G13" s="1">
         <v>14.254965</v>
       </c>
       <c r="H13" s="1">
-        <v>917.603000</v>
+        <v>917.60299999999995</v>
       </c>
       <c r="I13" s="1">
-        <v>-150.564000</v>
+        <v>-150.56399999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>51328.653767</v>
+        <v>51328.653767000003</v>
       </c>
       <c r="L13" s="1">
         <v>14.257959</v>
       </c>
       <c r="M13" s="1">
-        <v>939.221000</v>
+        <v>939.221</v>
       </c>
       <c r="N13" s="1">
-        <v>-111.912000</v>
+        <v>-111.91200000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>51339.211610</v>
+        <v>51339.211609999998</v>
       </c>
       <c r="Q13" s="1">
         <v>14.260892</v>
       </c>
       <c r="R13" s="1">
-        <v>946.210000</v>
+        <v>946.21</v>
       </c>
       <c r="S13" s="1">
-        <v>-99.027900</v>
+        <v>-99.027900000000002</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>51349.452013</v>
+        <v>51349.452013000002</v>
       </c>
       <c r="V13" s="1">
-        <v>14.263737</v>
+        <v>14.263737000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>953.569000</v>
+        <v>953.56899999999996</v>
       </c>
       <c r="X13" s="1">
-        <v>-87.406700</v>
+        <v>-87.406700000000001</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>51359.325408</v>
+        <v>51359.325407999997</v>
       </c>
       <c r="AA13" s="1">
         <v>14.266479</v>
       </c>
       <c r="AB13" s="1">
-        <v>961.852000</v>
+        <v>961.85199999999998</v>
       </c>
       <c r="AC13" s="1">
-        <v>-79.439600</v>
+        <v>-79.439599999999999</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>51369.477984</v>
+        <v>51369.477983999997</v>
       </c>
       <c r="AF13" s="1">
         <v>14.269299</v>
       </c>
       <c r="AG13" s="1">
-        <v>967.197000</v>
+        <v>967.197</v>
       </c>
       <c r="AH13" s="1">
-        <v>-79.642400</v>
+        <v>-79.642399999999995</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>51379.898437</v>
+        <v>51379.898437000003</v>
       </c>
       <c r="AK13" s="1">
-        <v>14.272194</v>
+        <v>14.272194000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>975.682000</v>
+        <v>975.68200000000002</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.933900</v>
+        <v>-87.933899999999994</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>51390.309494</v>
+        <v>51390.309494000001</v>
       </c>
       <c r="AP13" s="1">
         <v>14.275086</v>
       </c>
       <c r="AQ13" s="1">
-        <v>985.158000</v>
+        <v>985.15800000000002</v>
       </c>
       <c r="AR13" s="1">
-        <v>-103.176000</v>
+        <v>-103.176</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>51400.696215</v>
+        <v>51400.696215000004</v>
       </c>
       <c r="AU13" s="1">
-        <v>14.277971</v>
+        <v>14.277971000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>996.767000</v>
+        <v>996.76700000000005</v>
       </c>
       <c r="AW13" s="1">
-        <v>-125.002000</v>
+        <v>-125.002</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>51411.653306</v>
@@ -3458,13 +3874,13 @@
         <v>14.281015</v>
       </c>
       <c r="BA13" s="1">
-        <v>1006.580000</v>
+        <v>1006.58</v>
       </c>
       <c r="BB13" s="1">
-        <v>-143.941000</v>
+        <v>-143.941</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>51422.667964</v>
@@ -3473,240 +3889,240 @@
         <v>14.284074</v>
       </c>
       <c r="BF13" s="1">
-        <v>1052.380000</v>
+        <v>1052.3800000000001</v>
       </c>
       <c r="BG13" s="1">
-        <v>-229.349000</v>
+        <v>-229.34899999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>51433.477772</v>
+        <v>51433.477771999998</v>
       </c>
       <c r="BJ13" s="1">
         <v>14.287077</v>
       </c>
       <c r="BK13" s="1">
-        <v>1132.490000</v>
+        <v>1132.49</v>
       </c>
       <c r="BL13" s="1">
-        <v>-366.099000</v>
+        <v>-366.09899999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>51444.614134</v>
+        <v>51444.614134000003</v>
       </c>
       <c r="BO13" s="1">
-        <v>14.290171</v>
+        <v>14.290171000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1264.670000</v>
+        <v>1264.67</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-577.389000</v>
+        <v>-577.38900000000001</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>51455.539824</v>
+        <v>51455.539823999999</v>
       </c>
       <c r="BT13" s="1">
         <v>14.293206</v>
       </c>
       <c r="BU13" s="1">
-        <v>1412.850000</v>
+        <v>1412.85</v>
       </c>
       <c r="BV13" s="1">
-        <v>-803.704000</v>
+        <v>-803.70399999999995</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>51466.669089</v>
+        <v>51466.669089000003</v>
       </c>
       <c r="BY13" s="1">
-        <v>14.296297</v>
+        <v>14.296296999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1575.390000</v>
+        <v>1575.39</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1039.040000</v>
+        <v>-1039.04</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>51478.931152</v>
+        <v>51478.931151999997</v>
       </c>
       <c r="CD13" s="1">
-        <v>14.299703</v>
+        <v>14.299702999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>1985.810000</v>
+        <v>1985.81</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1589.690000</v>
+        <v>-1589.69</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>51307.817362</v>
+        <v>51307.817362000002</v>
       </c>
       <c r="B14" s="1">
-        <v>14.252171</v>
+        <v>14.252171000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>903.134000</v>
+        <v>903.13400000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>-174.784000</v>
+        <v>-174.78399999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>51318.527941</v>
       </c>
       <c r="G14" s="1">
-        <v>14.255147</v>
+        <v>14.255146999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>917.766000</v>
+        <v>917.76599999999996</v>
       </c>
       <c r="I14" s="1">
-        <v>-150.348000</v>
+        <v>-150.34800000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>51329.039159</v>
       </c>
       <c r="L14" s="1">
-        <v>14.258066</v>
+        <v>14.258065999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>939.120000</v>
+        <v>939.12</v>
       </c>
       <c r="N14" s="1">
-        <v>-111.794000</v>
+        <v>-111.794</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>51339.599017</v>
       </c>
       <c r="Q14" s="1">
-        <v>14.261000</v>
+        <v>14.260999999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>946.217000</v>
+        <v>946.21699999999998</v>
       </c>
       <c r="S14" s="1">
-        <v>-99.063400</v>
+        <v>-99.063400000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>51349.794747</v>
       </c>
       <c r="V14" s="1">
-        <v>14.263832</v>
+        <v>14.263832000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>953.682000</v>
+        <v>953.68200000000002</v>
       </c>
       <c r="X14" s="1">
-        <v>-87.382900</v>
+        <v>-87.382900000000006</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>51359.657695</v>
+        <v>51359.657695000002</v>
       </c>
       <c r="AA14" s="1">
         <v>14.266572</v>
       </c>
       <c r="AB14" s="1">
-        <v>961.827000</v>
+        <v>961.827</v>
       </c>
       <c r="AC14" s="1">
-        <v>-79.453800</v>
+        <v>-79.453800000000001</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>51369.824689</v>
+        <v>51369.824689000001</v>
       </c>
       <c r="AF14" s="1">
         <v>14.269396</v>
       </c>
       <c r="AG14" s="1">
-        <v>967.325000</v>
+        <v>967.32500000000005</v>
       </c>
       <c r="AH14" s="1">
-        <v>-79.677500</v>
+        <v>-79.677499999999995</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>51380.315570</v>
+        <v>51380.315569999999</v>
       </c>
       <c r="AK14" s="1">
-        <v>14.272310</v>
+        <v>14.272309999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>975.704000</v>
+        <v>975.70399999999995</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.942900</v>
+        <v>-87.942899999999995</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>51390.727589</v>
+        <v>51390.727589000002</v>
       </c>
       <c r="AP14" s="1">
         <v>14.275202</v>
       </c>
       <c r="AQ14" s="1">
-        <v>985.169000</v>
+        <v>985.16899999999998</v>
       </c>
       <c r="AR14" s="1">
-        <v>-103.187000</v>
+        <v>-103.187</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>51401.009159</v>
+        <v>51401.009159000001</v>
       </c>
       <c r="AU14" s="1">
         <v>14.278058</v>
       </c>
       <c r="AV14" s="1">
-        <v>996.768000</v>
+        <v>996.76800000000003</v>
       </c>
       <c r="AW14" s="1">
-        <v>-125.007000</v>
+        <v>-125.00700000000001</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>51412.012937</v>
@@ -3715,88 +4131,88 @@
         <v>14.281115</v>
       </c>
       <c r="BA14" s="1">
-        <v>1006.580000</v>
+        <v>1006.58</v>
       </c>
       <c r="BB14" s="1">
-        <v>-143.956000</v>
+        <v>-143.95599999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>51423.029050</v>
+        <v>51423.029049999997</v>
       </c>
       <c r="BE14" s="1">
-        <v>14.284175</v>
+        <v>14.284174999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1052.410000</v>
+        <v>1052.4100000000001</v>
       </c>
       <c r="BG14" s="1">
-        <v>-229.342000</v>
+        <v>-229.34200000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>51433.866171</v>
+        <v>51433.866171000001</v>
       </c>
       <c r="BJ14" s="1">
-        <v>14.287185</v>
+        <v>14.287184999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1132.520000</v>
+        <v>1132.52</v>
       </c>
       <c r="BL14" s="1">
-        <v>-366.149000</v>
+        <v>-366.149</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>51445.428876</v>
+        <v>51445.428875999998</v>
       </c>
       <c r="BO14" s="1">
         <v>14.290397</v>
       </c>
       <c r="BP14" s="1">
-        <v>1264.660000</v>
+        <v>1264.6600000000001</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-577.430000</v>
+        <v>-577.42999999999995</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>51455.955472</v>
+        <v>51455.955472000001</v>
       </c>
       <c r="BT14" s="1">
-        <v>14.293321</v>
+        <v>14.293321000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>1412.860000</v>
+        <v>1412.86</v>
       </c>
       <c r="BV14" s="1">
-        <v>-803.774000</v>
+        <v>-803.774</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>51467.090159</v>
+        <v>51467.090158999999</v>
       </c>
       <c r="BY14" s="1">
         <v>14.296414</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1575.510000</v>
+        <v>1575.51</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1039.100000</v>
+        <v>-1039.0999999999999</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>51479.449967</v>
@@ -3805,120 +4221,120 @@
         <v>14.299847</v>
       </c>
       <c r="CE14" s="1">
-        <v>1985.150000</v>
+        <v>1985.15</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1590.800000</v>
+        <v>-1590.8</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>51308.421955</v>
+        <v>51308.421954999998</v>
       </c>
       <c r="B15" s="1">
-        <v>14.252339</v>
+        <v>14.252338999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>903.035000</v>
+        <v>903.03499999999997</v>
       </c>
       <c r="D15" s="1">
-        <v>-174.740000</v>
+        <v>-174.74</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>51318.912340</v>
+        <v>51318.912340000003</v>
       </c>
       <c r="G15" s="1">
         <v>14.255253</v>
       </c>
       <c r="H15" s="1">
-        <v>917.554000</v>
+        <v>917.55399999999997</v>
       </c>
       <c r="I15" s="1">
-        <v>-150.444000</v>
+        <v>-150.44399999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>51329.382390</v>
+        <v>51329.382389999999</v>
       </c>
       <c r="L15" s="1">
         <v>14.258162</v>
       </c>
       <c r="M15" s="1">
-        <v>939.054000</v>
+        <v>939.05399999999997</v>
       </c>
       <c r="N15" s="1">
-        <v>-111.852000</v>
+        <v>-111.852</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>51339.945224</v>
+        <v>51339.945224000003</v>
       </c>
       <c r="Q15" s="1">
         <v>14.261096</v>
       </c>
       <c r="R15" s="1">
-        <v>946.234000</v>
+        <v>946.23400000000004</v>
       </c>
       <c r="S15" s="1">
-        <v>-99.056400</v>
+        <v>-99.056399999999996</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>51350.142970</v>
+        <v>51350.142970000001</v>
       </c>
       <c r="V15" s="1">
-        <v>14.263929</v>
+        <v>14.263928999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>953.583000</v>
+        <v>953.58299999999997</v>
       </c>
       <c r="X15" s="1">
-        <v>-87.451000</v>
+        <v>-87.450999999999993</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>51360.080286</v>
+        <v>51360.080285999997</v>
       </c>
       <c r="AA15" s="1">
         <v>14.266689</v>
       </c>
       <c r="AB15" s="1">
-        <v>961.857000</v>
+        <v>961.85699999999997</v>
       </c>
       <c r="AC15" s="1">
-        <v>-79.516600</v>
+        <v>-79.516599999999997</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>51370.242320</v>
+        <v>51370.242319999998</v>
       </c>
       <c r="AF15" s="1">
-        <v>14.269512</v>
+        <v>14.269512000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>967.260000</v>
+        <v>967.26</v>
       </c>
       <c r="AH15" s="1">
-        <v>-79.513200</v>
+        <v>-79.513199999999998</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>51380.598823</v>
@@ -3927,165 +4343,165 @@
         <v>14.272389</v>
       </c>
       <c r="AL15" s="1">
-        <v>975.683000</v>
+        <v>975.68299999999999</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.910900</v>
+        <v>-87.910899999999998</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>51391.024693</v>
+        <v>51391.024692999999</v>
       </c>
       <c r="AP15" s="1">
         <v>14.275285</v>
       </c>
       <c r="AQ15" s="1">
-        <v>985.168000</v>
+        <v>985.16800000000001</v>
       </c>
       <c r="AR15" s="1">
-        <v>-103.196000</v>
+        <v>-103.196</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>51401.378182</v>
       </c>
       <c r="AU15" s="1">
-        <v>14.278161</v>
+        <v>14.278161000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>996.802000</v>
+        <v>996.80200000000002</v>
       </c>
       <c r="AW15" s="1">
-        <v>-125.003000</v>
+        <v>-125.003</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>51412.370553</v>
+        <v>51412.370553000001</v>
       </c>
       <c r="AZ15" s="1">
         <v>14.281214</v>
       </c>
       <c r="BA15" s="1">
-        <v>1006.590000</v>
+        <v>1006.59</v>
       </c>
       <c r="BB15" s="1">
-        <v>-143.940000</v>
+        <v>-143.94</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>51423.389178</v>
+        <v>51423.389177999998</v>
       </c>
       <c r="BE15" s="1">
-        <v>14.284275</v>
+        <v>14.284274999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1052.400000</v>
+        <v>1052.4000000000001</v>
       </c>
       <c r="BG15" s="1">
-        <v>-229.342000</v>
+        <v>-229.34200000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>51434.614955</v>
+        <v>51434.614954999997</v>
       </c>
       <c r="BJ15" s="1">
         <v>14.287393</v>
       </c>
       <c r="BK15" s="1">
-        <v>1132.530000</v>
+        <v>1132.53</v>
       </c>
       <c r="BL15" s="1">
-        <v>-366.156000</v>
+        <v>-366.15600000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>51445.850513</v>
+        <v>51445.850512999998</v>
       </c>
       <c r="BO15" s="1">
         <v>14.290514</v>
       </c>
       <c r="BP15" s="1">
-        <v>1264.660000</v>
+        <v>1264.6600000000001</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-577.399000</v>
+        <v>-577.399</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>51456.382561</v>
+        <v>51456.382560999999</v>
       </c>
       <c r="BT15" s="1">
-        <v>14.293440</v>
+        <v>14.29344</v>
       </c>
       <c r="BU15" s="1">
-        <v>1412.890000</v>
+        <v>1412.89</v>
       </c>
       <c r="BV15" s="1">
-        <v>-803.695000</v>
+        <v>-803.69500000000005</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>51467.512752</v>
+        <v>51467.512752000002</v>
       </c>
       <c r="BY15" s="1">
         <v>14.296531</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1575.440000</v>
+        <v>1575.44</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1038.960000</v>
+        <v>-1038.96</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>51480.282256</v>
+        <v>51480.282255999999</v>
       </c>
       <c r="CD15" s="1">
-        <v>14.300078</v>
+        <v>14.300077999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>1987.030000</v>
+        <v>1987.03</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1591.140000</v>
+        <v>-1591.14</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>51308.841569</v>
+        <v>51308.841568999997</v>
       </c>
       <c r="B16" s="1">
         <v>14.252456</v>
       </c>
       <c r="C16" s="1">
-        <v>903.002000</v>
+        <v>903.00199999999995</v>
       </c>
       <c r="D16" s="1">
-        <v>-174.779000</v>
+        <v>-174.779</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>51319.254579</v>
@@ -4094,88 +4510,88 @@
         <v>14.255348</v>
       </c>
       <c r="H16" s="1">
-        <v>918.168000</v>
+        <v>918.16800000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-150.241000</v>
+        <v>-150.24100000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>51329.732071</v>
+        <v>51329.732070999999</v>
       </c>
       <c r="L16" s="1">
-        <v>14.258259</v>
+        <v>14.258259000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>939.259000</v>
+        <v>939.25900000000001</v>
       </c>
       <c r="N16" s="1">
-        <v>-111.787000</v>
+        <v>-111.78700000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>51340.297879</v>
+        <v>51340.297878999998</v>
       </c>
       <c r="Q16" s="1">
         <v>14.261194</v>
       </c>
       <c r="R16" s="1">
-        <v>946.226000</v>
+        <v>946.226</v>
       </c>
       <c r="S16" s="1">
-        <v>-99.090500</v>
+        <v>-99.090500000000006</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>51350.568505</v>
+        <v>51350.568505000003</v>
       </c>
       <c r="V16" s="1">
         <v>14.264047</v>
       </c>
       <c r="W16" s="1">
-        <v>953.564000</v>
+        <v>953.56399999999996</v>
       </c>
       <c r="X16" s="1">
-        <v>-87.452200</v>
+        <v>-87.452200000000005</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>51360.360526</v>
+        <v>51360.360525999997</v>
       </c>
       <c r="AA16" s="1">
         <v>14.266767</v>
       </c>
       <c r="AB16" s="1">
-        <v>961.784000</v>
+        <v>961.78399999999999</v>
       </c>
       <c r="AC16" s="1">
-        <v>-79.474200</v>
+        <v>-79.474199999999996</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>51370.520816</v>
+        <v>51370.520815999997</v>
       </c>
       <c r="AF16" s="1">
         <v>14.269589</v>
       </c>
       <c r="AG16" s="1">
-        <v>967.188000</v>
+        <v>967.18799999999999</v>
       </c>
       <c r="AH16" s="1">
-        <v>-79.650300</v>
+        <v>-79.650300000000001</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>51380.946483</v>
@@ -4184,844 +4600,844 @@
         <v>14.272485</v>
       </c>
       <c r="AL16" s="1">
-        <v>975.698000</v>
+        <v>975.69799999999998</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.938600</v>
+        <v>-87.938599999999994</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>51391.391236</v>
+        <v>51391.391236000003</v>
       </c>
       <c r="AP16" s="1">
-        <v>14.275386</v>
+        <v>14.275385999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>985.159000</v>
+        <v>985.15899999999999</v>
       </c>
       <c r="AR16" s="1">
-        <v>-103.179000</v>
+        <v>-103.179</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>51401.743237</v>
+        <v>51401.743237000002</v>
       </c>
       <c r="AU16" s="1">
         <v>14.278262</v>
       </c>
       <c r="AV16" s="1">
-        <v>996.787000</v>
+        <v>996.78700000000003</v>
       </c>
       <c r="AW16" s="1">
-        <v>-125.002000</v>
+        <v>-125.002</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>51413.096169</v>
+        <v>51413.096168999997</v>
       </c>
       <c r="AZ16" s="1">
         <v>14.281416</v>
       </c>
       <c r="BA16" s="1">
-        <v>1006.590000</v>
+        <v>1006.59</v>
       </c>
       <c r="BB16" s="1">
-        <v>-143.937000</v>
+        <v>-143.93700000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>51424.112314</v>
+        <v>51424.112313999998</v>
       </c>
       <c r="BE16" s="1">
         <v>14.284476</v>
       </c>
       <c r="BF16" s="1">
-        <v>1052.390000</v>
+        <v>1052.3900000000001</v>
       </c>
       <c r="BG16" s="1">
-        <v>-229.356000</v>
+        <v>-229.35599999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>51435.017354</v>
+        <v>51435.017354000003</v>
       </c>
       <c r="BJ16" s="1">
-        <v>14.287505</v>
+        <v>14.287504999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1132.510000</v>
+        <v>1132.51</v>
       </c>
       <c r="BL16" s="1">
-        <v>-366.089000</v>
+        <v>-366.089</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>51446.247803</v>
+        <v>51446.247802999998</v>
       </c>
       <c r="BO16" s="1">
-        <v>14.290624</v>
+        <v>14.290623999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1264.690000</v>
+        <v>1264.69</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-577.414000</v>
+        <v>-577.41399999999999</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>51456.811566</v>
+        <v>51456.811565999997</v>
       </c>
       <c r="BT16" s="1">
         <v>14.293559</v>
       </c>
       <c r="BU16" s="1">
-        <v>1412.810000</v>
+        <v>1412.81</v>
       </c>
       <c r="BV16" s="1">
-        <v>-803.676000</v>
+        <v>-803.67600000000004</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>51468.240384</v>
+        <v>51468.240383999997</v>
       </c>
       <c r="BY16" s="1">
         <v>14.296733</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1575.310000</v>
+        <v>1575.31</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1039.160000</v>
+        <v>-1039.1600000000001</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>51480.486142</v>
+        <v>51480.486142000002</v>
       </c>
       <c r="CD16" s="1">
-        <v>14.300135</v>
+        <v>14.300134999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>1986.970000</v>
+        <v>1986.97</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1589.490000</v>
+        <v>-1589.49</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>51309.184800</v>
+        <v>51309.184800000003</v>
       </c>
       <c r="B17" s="1">
         <v>14.252551</v>
       </c>
       <c r="C17" s="1">
-        <v>903.100000</v>
+        <v>903.1</v>
       </c>
       <c r="D17" s="1">
-        <v>-174.765000</v>
+        <v>-174.76499999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>51319.598306</v>
       </c>
       <c r="G17" s="1">
-        <v>14.255444</v>
+        <v>14.255444000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>917.288000</v>
+        <v>917.28800000000001</v>
       </c>
       <c r="I17" s="1">
-        <v>-150.459000</v>
+        <v>-150.459</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>51330.146229</v>
+        <v>51330.146228999998</v>
       </c>
       <c r="L17" s="1">
         <v>14.258374</v>
       </c>
       <c r="M17" s="1">
-        <v>939.206000</v>
+        <v>939.20600000000002</v>
       </c>
       <c r="N17" s="1">
-        <v>-111.791000</v>
+        <v>-111.791</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>51340.725400</v>
+        <v>51340.725400000003</v>
       </c>
       <c r="Q17" s="1">
-        <v>14.261313</v>
+        <v>14.261312999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>946.212000</v>
+        <v>946.21199999999999</v>
       </c>
       <c r="S17" s="1">
-        <v>-99.117100</v>
+        <v>-99.117099999999994</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>51350.847259</v>
+        <v>51350.847259000002</v>
       </c>
       <c r="V17" s="1">
-        <v>14.264124</v>
+        <v>14.264124000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>953.595000</v>
+        <v>953.59500000000003</v>
       </c>
       <c r="X17" s="1">
-        <v>-87.330600</v>
+        <v>-87.330600000000004</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>51360.712215</v>
       </c>
       <c r="AA17" s="1">
-        <v>14.266865</v>
+        <v>14.266864999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>961.797000</v>
+        <v>961.79700000000003</v>
       </c>
       <c r="AC17" s="1">
-        <v>-79.383500</v>
+        <v>-79.383499999999998</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>51370.862355</v>
+        <v>51370.862354999997</v>
       </c>
       <c r="AF17" s="1">
         <v>14.269684</v>
       </c>
       <c r="AG17" s="1">
-        <v>967.557000</v>
+        <v>967.55700000000002</v>
       </c>
       <c r="AH17" s="1">
-        <v>-79.591200</v>
+        <v>-79.591200000000001</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>51381.296658</v>
+        <v>51381.296657999999</v>
       </c>
       <c r="AK17" s="1">
         <v>14.272582</v>
       </c>
       <c r="AL17" s="1">
-        <v>975.686000</v>
+        <v>975.68600000000004</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.934600</v>
+        <v>-87.934600000000003</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>51391.748355</v>
+        <v>51391.748355000003</v>
       </c>
       <c r="AP17" s="1">
-        <v>14.275486</v>
+        <v>14.275486000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>985.159000</v>
+        <v>985.15899999999999</v>
       </c>
       <c r="AR17" s="1">
-        <v>-103.154000</v>
+        <v>-103.154</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>51402.477317</v>
+        <v>51402.477316999997</v>
       </c>
       <c r="AU17" s="1">
         <v>14.278466</v>
       </c>
       <c r="AV17" s="1">
-        <v>996.791000</v>
+        <v>996.79100000000005</v>
       </c>
       <c r="AW17" s="1">
-        <v>-125.012000</v>
+        <v>-125.012</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>51413.472632</v>
+        <v>51413.472631999997</v>
       </c>
       <c r="AZ17" s="1">
-        <v>14.281520</v>
+        <v>14.28152</v>
       </c>
       <c r="BA17" s="1">
-        <v>1006.570000</v>
+        <v>1006.57</v>
       </c>
       <c r="BB17" s="1">
-        <v>-143.958000</v>
+        <v>-143.958</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>51424.502664</v>
       </c>
       <c r="BE17" s="1">
-        <v>14.284584</v>
+        <v>14.284584000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1052.380000</v>
+        <v>1052.3800000000001</v>
       </c>
       <c r="BG17" s="1">
-        <v>-229.335000</v>
+        <v>-229.33500000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>51435.394315</v>
+        <v>51435.394314999998</v>
       </c>
       <c r="BJ17" s="1">
-        <v>14.287610</v>
+        <v>14.287610000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1132.460000</v>
+        <v>1132.46</v>
       </c>
       <c r="BL17" s="1">
-        <v>-366.143000</v>
+        <v>-366.14299999999997</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>51446.976427</v>
+        <v>51446.976427000001</v>
       </c>
       <c r="BO17" s="1">
         <v>14.290827</v>
       </c>
       <c r="BP17" s="1">
-        <v>1264.660000</v>
+        <v>1264.6600000000001</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-577.391000</v>
+        <v>-577.39099999999996</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>51457.533244</v>
+        <v>51457.533243999998</v>
       </c>
       <c r="BT17" s="1">
         <v>14.293759</v>
       </c>
       <c r="BU17" s="1">
-        <v>1412.790000</v>
+        <v>1412.79</v>
       </c>
       <c r="BV17" s="1">
-        <v>-803.659000</v>
+        <v>-803.65899999999999</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>51468.352510</v>
+        <v>51468.352509999997</v>
       </c>
       <c r="BY17" s="1">
-        <v>14.296765</v>
+        <v>14.296765000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1575.510000</v>
+        <v>1575.51</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1039.020000</v>
+        <v>-1039.02</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>51481.004925</v>
+        <v>51481.004925000001</v>
       </c>
       <c r="CD17" s="1">
         <v>14.300279</v>
       </c>
       <c r="CE17" s="1">
-        <v>1986.920000</v>
+        <v>1986.92</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1589.560000</v>
+        <v>-1589.56</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>51309.612352</v>
+        <v>51309.612351999996</v>
       </c>
       <c r="B18" s="1">
-        <v>14.252670</v>
+        <v>14.25267</v>
       </c>
       <c r="C18" s="1">
-        <v>903.167000</v>
+        <v>903.16700000000003</v>
       </c>
       <c r="D18" s="1">
-        <v>-174.688000</v>
+        <v>-174.68799999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>51320.015442</v>
+        <v>51320.015442000004</v>
       </c>
       <c r="G18" s="1">
-        <v>14.255560</v>
+        <v>14.255559999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>917.691000</v>
+        <v>917.69100000000003</v>
       </c>
       <c r="I18" s="1">
-        <v>-150.154000</v>
+        <v>-150.154</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>51330.440901</v>
+        <v>51330.440901000002</v>
       </c>
       <c r="L18" s="1">
-        <v>14.258456</v>
+        <v>14.258456000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>938.970000</v>
+        <v>938.97</v>
       </c>
       <c r="N18" s="1">
-        <v>-111.780000</v>
+        <v>-111.78</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>51341.007624</v>
+        <v>51341.007623999998</v>
       </c>
       <c r="Q18" s="1">
         <v>14.261391</v>
       </c>
       <c r="R18" s="1">
-        <v>946.230000</v>
+        <v>946.23</v>
       </c>
       <c r="S18" s="1">
-        <v>-99.077300</v>
+        <v>-99.077299999999994</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>51351.189244</v>
+        <v>51351.189244000001</v>
       </c>
       <c r="V18" s="1">
-        <v>14.264219</v>
+        <v>14.264219000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>953.516000</v>
+        <v>953.51599999999996</v>
       </c>
       <c r="X18" s="1">
-        <v>-87.419200</v>
+        <v>-87.419200000000004</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>51361.055421</v>
+        <v>51361.055420999997</v>
       </c>
       <c r="AA18" s="1">
-        <v>14.266960</v>
+        <v>14.266959999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>961.826000</v>
+        <v>961.82600000000002</v>
       </c>
       <c r="AC18" s="1">
-        <v>-79.484800</v>
+        <v>-79.484800000000007</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>51371.208528</v>
+        <v>51371.208528000003</v>
       </c>
       <c r="AF18" s="1">
-        <v>14.269780</v>
+        <v>14.269780000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>967.276000</v>
+        <v>967.27599999999995</v>
       </c>
       <c r="AH18" s="1">
-        <v>-79.660800</v>
+        <v>-79.660799999999995</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>51381.991057</v>
+        <v>51381.991056999999</v>
       </c>
       <c r="AK18" s="1">
-        <v>14.272775</v>
+        <v>14.272774999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>975.683000</v>
+        <v>975.68299999999999</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.906000</v>
+        <v>-87.906000000000006</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>51392.476483</v>
+        <v>51392.476482999999</v>
       </c>
       <c r="AP18" s="1">
-        <v>14.275688</v>
+        <v>14.275688000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>985.169000</v>
+        <v>985.16899999999998</v>
       </c>
       <c r="AR18" s="1">
-        <v>-103.179000</v>
+        <v>-103.179</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>51402.862214</v>
+        <v>51402.862214000001</v>
       </c>
       <c r="AU18" s="1">
         <v>14.278573</v>
       </c>
       <c r="AV18" s="1">
-        <v>996.788000</v>
+        <v>996.78800000000001</v>
       </c>
       <c r="AW18" s="1">
-        <v>-125.007000</v>
+        <v>-125.00700000000001</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>51413.850235</v>
+        <v>51413.850234999998</v>
       </c>
       <c r="AZ18" s="1">
         <v>14.281625</v>
       </c>
       <c r="BA18" s="1">
-        <v>1006.580000</v>
+        <v>1006.58</v>
       </c>
       <c r="BB18" s="1">
-        <v>-143.962000</v>
+        <v>-143.96199999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>51424.864744</v>
+        <v>51424.864743999999</v>
       </c>
       <c r="BE18" s="1">
         <v>14.284685</v>
       </c>
       <c r="BF18" s="1">
-        <v>1052.420000</v>
+        <v>1052.42</v>
       </c>
       <c r="BG18" s="1">
-        <v>-229.343000</v>
+        <v>-229.34299999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>51436.077304</v>
+        <v>51436.077303999999</v>
       </c>
       <c r="BJ18" s="1">
         <v>14.287799</v>
       </c>
       <c r="BK18" s="1">
-        <v>1132.480000</v>
+        <v>1132.48</v>
       </c>
       <c r="BL18" s="1">
-        <v>-366.131000</v>
+        <v>-366.13099999999997</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>51447.092956</v>
       </c>
       <c r="BO18" s="1">
-        <v>14.290859</v>
+        <v>14.290858999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1264.620000</v>
+        <v>1264.6199999999999</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-577.440000</v>
+        <v>-577.44000000000005</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>51457.653772</v>
+        <v>51457.653771999998</v>
       </c>
       <c r="BT18" s="1">
-        <v>14.293793</v>
+        <v>14.293793000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>1412.720000</v>
+        <v>1412.72</v>
       </c>
       <c r="BV18" s="1">
-        <v>-803.676000</v>
+        <v>-803.67600000000004</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>51468.788994</v>
+        <v>51468.788994000002</v>
       </c>
       <c r="BY18" s="1">
-        <v>14.296886</v>
+        <v>14.296886000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1575.550000</v>
+        <v>1575.55</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1039.070000</v>
+        <v>-1039.07</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>51481.552510</v>
+        <v>51481.552510000001</v>
       </c>
       <c r="CD18" s="1">
         <v>14.300431</v>
       </c>
       <c r="CE18" s="1">
-        <v>1987.030000</v>
+        <v>1987.03</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1590.400000</v>
+        <v>-1590.4</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>51309.888157</v>
+        <v>51309.888157000001</v>
       </c>
       <c r="B19" s="1">
-        <v>14.252747</v>
+        <v>14.252746999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>902.932000</v>
+        <v>902.93200000000002</v>
       </c>
       <c r="D19" s="1">
-        <v>-174.752000</v>
+        <v>-174.75200000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>51320.295681</v>
+        <v>51320.295681000003</v>
       </c>
       <c r="G19" s="1">
-        <v>14.255638</v>
+        <v>14.255637999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>917.499000</v>
+        <v>917.49900000000002</v>
       </c>
       <c r="I19" s="1">
-        <v>-150.344000</v>
+        <v>-150.34399999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>51330.784611</v>
+        <v>51330.784611000003</v>
       </c>
       <c r="L19" s="1">
-        <v>14.258551</v>
+        <v>14.258551000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>939.177000</v>
+        <v>939.17700000000002</v>
       </c>
       <c r="N19" s="1">
-        <v>-111.928000</v>
+        <v>-111.928</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>51341.352839</v>
+        <v>51341.352838999999</v>
       </c>
       <c r="Q19" s="1">
-        <v>14.261487</v>
+        <v>14.261487000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>946.218000</v>
+        <v>946.21799999999996</v>
       </c>
       <c r="S19" s="1">
-        <v>-99.058900</v>
+        <v>-99.058899999999994</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>51351.534714</v>
+        <v>51351.534714000001</v>
       </c>
       <c r="V19" s="1">
         <v>14.264315</v>
       </c>
       <c r="W19" s="1">
-        <v>953.592000</v>
+        <v>953.59199999999998</v>
       </c>
       <c r="X19" s="1">
-        <v>-87.389500</v>
+        <v>-87.389499999999998</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>51361.756299</v>
+        <v>51361.756299000001</v>
       </c>
       <c r="AA19" s="1">
-        <v>14.267155</v>
+        <v>14.267155000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>961.767000</v>
+        <v>961.76700000000005</v>
       </c>
       <c r="AC19" s="1">
-        <v>-79.409600</v>
+        <v>-79.409599999999998</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>51371.893529</v>
+        <v>51371.893529000001</v>
       </c>
       <c r="AF19" s="1">
-        <v>14.269970</v>
+        <v>14.269970000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>967.310000</v>
+        <v>967.31</v>
       </c>
       <c r="AH19" s="1">
-        <v>-79.614400</v>
+        <v>-79.614400000000003</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>51382.339280</v>
+        <v>51382.33928</v>
       </c>
       <c r="AK19" s="1">
         <v>14.272872</v>
       </c>
       <c r="AL19" s="1">
-        <v>975.675000</v>
+        <v>975.67499999999995</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.918000</v>
+        <v>-87.918000000000006</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>51392.867827</v>
+        <v>51392.867827000002</v>
       </c>
       <c r="AP19" s="1">
-        <v>14.275797</v>
+        <v>14.275797000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>985.150000</v>
+        <v>985.15</v>
       </c>
       <c r="AR19" s="1">
-        <v>-103.183000</v>
+        <v>-103.18300000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>51403.224820</v>
+        <v>51403.224820000003</v>
       </c>
       <c r="AU19" s="1">
-        <v>14.278674</v>
+        <v>14.278674000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>996.783000</v>
+        <v>996.78300000000002</v>
       </c>
       <c r="AW19" s="1">
-        <v>-125.019000</v>
+        <v>-125.01900000000001</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <v>51414.506791</v>
       </c>
       <c r="AZ19" s="1">
-        <v>14.281807</v>
+        <v>14.281807000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1006.580000</v>
+        <v>1006.58</v>
       </c>
       <c r="BB19" s="1">
-        <v>-143.952000</v>
+        <v>-143.952</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>51425.532393</v>
+        <v>51425.532393000001</v>
       </c>
       <c r="BE19" s="1">
-        <v>14.284870</v>
+        <v>14.28487</v>
       </c>
       <c r="BF19" s="1">
-        <v>1052.390000</v>
+        <v>1052.3900000000001</v>
       </c>
       <c r="BG19" s="1">
-        <v>-229.350000</v>
+        <v>-229.35</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>51436.549992</v>
@@ -5030,13 +5446,13 @@
         <v>14.287931</v>
       </c>
       <c r="BK19" s="1">
-        <v>1132.470000</v>
+        <v>1132.47</v>
       </c>
       <c r="BL19" s="1">
-        <v>-366.109000</v>
+        <v>-366.10899999999998</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>51447.489298</v>
@@ -5045,28 +5461,28 @@
         <v>14.290969</v>
       </c>
       <c r="BP19" s="1">
-        <v>1264.660000</v>
+        <v>1264.6600000000001</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-577.433000</v>
+        <v>-577.43299999999999</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>51458.091280</v>
+        <v>51458.091280000001</v>
       </c>
       <c r="BT19" s="1">
-        <v>14.293914</v>
+        <v>14.293913999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>1412.660000</v>
+        <v>1412.66</v>
       </c>
       <c r="BV19" s="1">
-        <v>-803.650000</v>
+        <v>-803.65</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>51469.211936</v>
@@ -5075,135 +5491,135 @@
         <v>14.297003</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1575.450000</v>
+        <v>1575.45</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1038.910000</v>
+        <v>-1038.9100000000001</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>51482.080749</v>
+        <v>51482.080749000001</v>
       </c>
       <c r="CD19" s="1">
         <v>14.300578</v>
       </c>
       <c r="CE19" s="1">
-        <v>1986.240000</v>
+        <v>1986.24</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1588.990000</v>
+        <v>-1588.99</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>51310.230896</v>
+        <v>51310.230896000001</v>
       </c>
       <c r="B20" s="1">
-        <v>14.252842</v>
+        <v>14.252841999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>902.979000</v>
+        <v>902.97900000000004</v>
       </c>
       <c r="D20" s="1">
-        <v>-174.722000</v>
+        <v>-174.72200000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>51320.639941</v>
+        <v>51320.639941000001</v>
       </c>
       <c r="G20" s="1">
-        <v>14.255733</v>
+        <v>14.255732999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>917.777000</v>
+        <v>917.77700000000004</v>
       </c>
       <c r="I20" s="1">
-        <v>-150.464000</v>
+        <v>-150.464</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>51331.132772</v>
+        <v>51331.132771999997</v>
       </c>
       <c r="L20" s="1">
-        <v>14.258648</v>
+        <v>14.258648000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>939.030000</v>
+        <v>939.03</v>
       </c>
       <c r="N20" s="1">
-        <v>-112.068000</v>
+        <v>-112.068</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>51341.727347</v>
       </c>
       <c r="Q20" s="1">
-        <v>14.261591</v>
+        <v>14.261590999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>946.239000</v>
+        <v>946.23900000000003</v>
       </c>
       <c r="S20" s="1">
-        <v>-99.050200</v>
+        <v>-99.050200000000004</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>51352.222168</v>
       </c>
       <c r="V20" s="1">
-        <v>14.264506</v>
+        <v>14.264506000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>953.617000</v>
+        <v>953.61699999999996</v>
       </c>
       <c r="X20" s="1">
-        <v>-87.434300</v>
+        <v>-87.434299999999993</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>51362.099531</v>
       </c>
       <c r="AA20" s="1">
-        <v>14.267250</v>
+        <v>14.267250000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>961.929000</v>
+        <v>961.92899999999997</v>
       </c>
       <c r="AC20" s="1">
-        <v>-79.410100</v>
+        <v>-79.4101</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>51372.236752</v>
+        <v>51372.236751999997</v>
       </c>
       <c r="AF20" s="1">
         <v>14.270066</v>
       </c>
       <c r="AG20" s="1">
-        <v>967.218000</v>
+        <v>967.21799999999996</v>
       </c>
       <c r="AH20" s="1">
-        <v>-79.630800</v>
+        <v>-79.630799999999994</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>51382.688961</v>
@@ -5212,13 +5628,13 @@
         <v>14.272969</v>
       </c>
       <c r="AL20" s="1">
-        <v>975.686000</v>
+        <v>975.68600000000004</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.909600</v>
+        <v>-87.909599999999998</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>51393.215525</v>
@@ -5227,28 +5643,28 @@
         <v>14.275893</v>
       </c>
       <c r="AQ20" s="1">
-        <v>985.157000</v>
+        <v>985.15700000000004</v>
       </c>
       <c r="AR20" s="1">
-        <v>-103.188000</v>
+        <v>-103.188</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>51403.904803</v>
+        <v>51403.904802999998</v>
       </c>
       <c r="AU20" s="1">
         <v>14.278862</v>
       </c>
       <c r="AV20" s="1">
-        <v>996.763000</v>
+        <v>996.76300000000003</v>
       </c>
       <c r="AW20" s="1">
-        <v>-125.006000</v>
+        <v>-125.006</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>51414.934342</v>
@@ -5257,225 +5673,225 @@
         <v>14.281926</v>
       </c>
       <c r="BA20" s="1">
-        <v>1006.580000</v>
+        <v>1006.58</v>
       </c>
       <c r="BB20" s="1">
-        <v>-143.943000</v>
+        <v>-143.94300000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>51425.949990</v>
+        <v>51425.949990000001</v>
       </c>
       <c r="BE20" s="1">
         <v>14.284986</v>
       </c>
       <c r="BF20" s="1">
-        <v>1052.410000</v>
+        <v>1052.4100000000001</v>
       </c>
       <c r="BG20" s="1">
-        <v>-229.335000</v>
+        <v>-229.33500000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>51436.939849</v>
+        <v>51436.939849000002</v>
       </c>
       <c r="BJ20" s="1">
-        <v>14.288039</v>
+        <v>14.288038999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1132.490000</v>
+        <v>1132.49</v>
       </c>
       <c r="BL20" s="1">
-        <v>-366.145000</v>
+        <v>-366.14499999999998</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>51447.913834</v>
+        <v>51447.913833999999</v>
       </c>
       <c r="BO20" s="1">
-        <v>14.291087</v>
+        <v>14.291086999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1264.650000</v>
+        <v>1264.6500000000001</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-577.415000</v>
+        <v>-577.41499999999996</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>51458.519787</v>
+        <v>51458.519786999997</v>
       </c>
       <c r="BT20" s="1">
-        <v>14.294033</v>
+        <v>14.294033000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>1412.630000</v>
+        <v>1412.63</v>
       </c>
       <c r="BV20" s="1">
-        <v>-803.626000</v>
+        <v>-803.62599999999998</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>51469.633150</v>
+        <v>51469.633150000001</v>
       </c>
       <c r="BY20" s="1">
-        <v>14.297120</v>
+        <v>14.29712</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1575.320000</v>
+        <v>1575.32</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1039.140000</v>
+        <v>-1039.1400000000001</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>51482.600092</v>
+        <v>51482.600092000001</v>
       </c>
       <c r="CD20" s="1">
         <v>14.300722</v>
       </c>
       <c r="CE20" s="1">
-        <v>1985.680000</v>
+        <v>1985.68</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1591.150000</v>
+        <v>-1591.15</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>51310.570128</v>
+        <v>51310.570127999999</v>
       </c>
       <c r="B21" s="1">
         <v>14.252936</v>
       </c>
       <c r="C21" s="1">
-        <v>903.103000</v>
+        <v>903.10299999999995</v>
       </c>
       <c r="D21" s="1">
-        <v>-174.781000</v>
+        <v>-174.78100000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>51320.985157</v>
+        <v>51320.985157000003</v>
       </c>
       <c r="G21" s="1">
         <v>14.255829</v>
       </c>
       <c r="H21" s="1">
-        <v>917.659000</v>
+        <v>917.65899999999999</v>
       </c>
       <c r="I21" s="1">
-        <v>-150.261000</v>
+        <v>-150.261</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>51331.827203</v>
+        <v>51331.827203000001</v>
       </c>
       <c r="L21" s="1">
         <v>14.258841</v>
       </c>
       <c r="M21" s="1">
-        <v>939.115000</v>
+        <v>939.11500000000001</v>
       </c>
       <c r="N21" s="1">
-        <v>-111.911000</v>
+        <v>-111.911</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>51342.406512</v>
+        <v>51342.406512000001</v>
       </c>
       <c r="Q21" s="1">
-        <v>14.261780</v>
+        <v>14.26178</v>
       </c>
       <c r="R21" s="1">
-        <v>946.245000</v>
+        <v>946.245</v>
       </c>
       <c r="S21" s="1">
-        <v>-99.051600</v>
+        <v>-99.051599999999993</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>51352.564445</v>
+        <v>51352.564445000004</v>
       </c>
       <c r="V21" s="1">
-        <v>14.264601</v>
+        <v>14.264601000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>953.582000</v>
+        <v>953.58199999999999</v>
       </c>
       <c r="X21" s="1">
-        <v>-87.415000</v>
+        <v>-87.415000000000006</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>51362.451694</v>
+        <v>51362.451694000003</v>
       </c>
       <c r="AA21" s="1">
         <v>14.267348</v>
       </c>
       <c r="AB21" s="1">
-        <v>961.835000</v>
+        <v>961.83500000000004</v>
       </c>
       <c r="AC21" s="1">
-        <v>-79.472100</v>
+        <v>-79.472099999999998</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>51372.580492</v>
+        <v>51372.580492000001</v>
       </c>
       <c r="AF21" s="1">
         <v>14.270161</v>
       </c>
       <c r="AG21" s="1">
-        <v>967.317000</v>
+        <v>967.31700000000001</v>
       </c>
       <c r="AH21" s="1">
-        <v>-79.577600</v>
+        <v>-79.577600000000004</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>51383.343647</v>
+        <v>51383.343647000002</v>
       </c>
       <c r="AK21" s="1">
         <v>14.273151</v>
       </c>
       <c r="AL21" s="1">
-        <v>975.674000</v>
+        <v>975.67399999999998</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.933900</v>
+        <v>-87.933899999999994</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>51393.650017</v>
@@ -5484,345 +5900,345 @@
         <v>14.276014</v>
       </c>
       <c r="AQ21" s="1">
-        <v>985.156000</v>
+        <v>985.15599999999995</v>
       </c>
       <c r="AR21" s="1">
-        <v>-103.198000</v>
+        <v>-103.19799999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>51404.347732</v>
+        <v>51404.347732000002</v>
       </c>
       <c r="AU21" s="1">
         <v>14.278985</v>
       </c>
       <c r="AV21" s="1">
-        <v>996.777000</v>
+        <v>996.77700000000004</v>
       </c>
       <c r="AW21" s="1">
-        <v>-125.027000</v>
+        <v>-125.027</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>51415.308852</v>
+        <v>51415.308852000002</v>
       </c>
       <c r="AZ21" s="1">
-        <v>14.282030</v>
+        <v>14.282030000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1006.570000</v>
+        <v>1006.57</v>
       </c>
       <c r="BB21" s="1">
-        <v>-143.950000</v>
+        <v>-143.94999999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>51426.336870</v>
+        <v>51426.336869999999</v>
       </c>
       <c r="BE21" s="1">
-        <v>14.285094</v>
+        <v>14.285094000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1052.400000</v>
+        <v>1052.4000000000001</v>
       </c>
       <c r="BG21" s="1">
-        <v>-229.354000</v>
+        <v>-229.35400000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>51437.314839</v>
+        <v>51437.314838999999</v>
       </c>
       <c r="BJ21" s="1">
         <v>14.288143</v>
       </c>
       <c r="BK21" s="1">
-        <v>1132.520000</v>
+        <v>1132.52</v>
       </c>
       <c r="BL21" s="1">
-        <v>-366.099000</v>
+        <v>-366.09899999999999</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>51448.344858</v>
+        <v>51448.344857999997</v>
       </c>
       <c r="BO21" s="1">
         <v>14.291207</v>
       </c>
       <c r="BP21" s="1">
-        <v>1264.660000</v>
+        <v>1264.6600000000001</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-577.416000</v>
+        <v>-577.41600000000005</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
         <v>51458.944399</v>
       </c>
       <c r="BT21" s="1">
-        <v>14.294151</v>
+        <v>14.294150999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1412.670000</v>
+        <v>1412.67</v>
       </c>
       <c r="BV21" s="1">
-        <v>-803.582000</v>
+        <v>-803.58199999999999</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>51470.060701</v>
+        <v>51470.060701000002</v>
       </c>
       <c r="BY21" s="1">
-        <v>14.297239</v>
+        <v>14.297238999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1575.390000</v>
+        <v>1575.39</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1039.040000</v>
+        <v>-1039.04</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>51483.141692</v>
+        <v>51483.141691999997</v>
       </c>
       <c r="CD21" s="1">
-        <v>14.300873</v>
+        <v>14.300872999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>1986.930000</v>
+        <v>1986.93</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1589.890000</v>
+        <v>-1589.89</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>51311.255103</v>
+        <v>51311.255103000003</v>
       </c>
       <c r="B22" s="1">
         <v>14.253126</v>
       </c>
       <c r="C22" s="1">
-        <v>903.200000</v>
+        <v>903.2</v>
       </c>
       <c r="D22" s="1">
-        <v>-174.755000</v>
+        <v>-174.755</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>51321.673600</v>
+        <v>51321.673600000002</v>
       </c>
       <c r="G22" s="1">
-        <v>14.256020</v>
+        <v>14.256019999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>917.438000</v>
+        <v>917.43799999999999</v>
       </c>
       <c r="I22" s="1">
-        <v>-150.646000</v>
+        <v>-150.64599999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>51332.177379</v>
+        <v>51332.177379000001</v>
       </c>
       <c r="L22" s="1">
-        <v>14.258938</v>
+        <v>14.258938000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>939.190000</v>
+        <v>939.19</v>
       </c>
       <c r="N22" s="1">
-        <v>-111.937000</v>
+        <v>-111.937</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>51342.749107</v>
+        <v>51342.749107000003</v>
       </c>
       <c r="Q22" s="1">
         <v>14.261875</v>
       </c>
       <c r="R22" s="1">
-        <v>946.236000</v>
+        <v>946.23599999999999</v>
       </c>
       <c r="S22" s="1">
-        <v>-99.068300</v>
+        <v>-99.068299999999994</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>51352.908630</v>
+        <v>51352.908629999998</v>
       </c>
       <c r="V22" s="1">
         <v>14.264697</v>
       </c>
       <c r="W22" s="1">
-        <v>953.509000</v>
+        <v>953.50900000000001</v>
       </c>
       <c r="X22" s="1">
-        <v>-87.475200</v>
+        <v>-87.475200000000001</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>51363.114809</v>
+        <v>51363.114808999999</v>
       </c>
       <c r="AA22" s="1">
-        <v>14.267532</v>
+        <v>14.267531999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>961.758000</v>
+        <v>961.75800000000004</v>
       </c>
       <c r="AC22" s="1">
-        <v>-79.464900</v>
+        <v>-79.4649</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>51373.237661</v>
+        <v>51373.237660999999</v>
       </c>
       <c r="AF22" s="1">
         <v>14.270344</v>
       </c>
       <c r="AG22" s="1">
-        <v>967.341000</v>
+        <v>967.34100000000001</v>
       </c>
       <c r="AH22" s="1">
-        <v>-79.600700</v>
+        <v>-79.600700000000003</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>51383.735487</v>
+        <v>51383.735486999998</v>
       </c>
       <c r="AK22" s="1">
-        <v>14.273260</v>
+        <v>14.273260000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>975.683000</v>
+        <v>975.68299999999999</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.903200</v>
+        <v>-87.903199999999998</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>51393.929792</v>
+        <v>51393.929792000003</v>
       </c>
       <c r="AP22" s="1">
         <v>14.276092</v>
       </c>
       <c r="AQ22" s="1">
-        <v>985.165000</v>
+        <v>985.16499999999996</v>
       </c>
       <c r="AR22" s="1">
-        <v>-103.200000</v>
+        <v>-103.2</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>51404.710802</v>
+        <v>51404.710802000001</v>
       </c>
       <c r="AU22" s="1">
         <v>14.279086</v>
       </c>
       <c r="AV22" s="1">
-        <v>996.778000</v>
+        <v>996.77800000000002</v>
       </c>
       <c r="AW22" s="1">
-        <v>-125.023000</v>
+        <v>-125.023</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>51415.690243</v>
+        <v>51415.690242999997</v>
       </c>
       <c r="AZ22" s="1">
-        <v>14.282136</v>
+        <v>14.282135999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1006.570000</v>
+        <v>1006.57</v>
       </c>
       <c r="BB22" s="1">
-        <v>-143.958000</v>
+        <v>-143.958</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>51426.696469</v>
+        <v>51426.696469000002</v>
       </c>
       <c r="BE22" s="1">
         <v>14.285193</v>
       </c>
       <c r="BF22" s="1">
-        <v>1052.390000</v>
+        <v>1052.3900000000001</v>
       </c>
       <c r="BG22" s="1">
-        <v>-229.360000</v>
+        <v>-229.36</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>51437.738440</v>
+        <v>51437.738440000001</v>
       </c>
       <c r="BJ22" s="1">
         <v>14.288261</v>
       </c>
       <c r="BK22" s="1">
-        <v>1132.470000</v>
+        <v>1132.47</v>
       </c>
       <c r="BL22" s="1">
-        <v>-366.115000</v>
+        <v>-366.11500000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>51448.733759</v>
+        <v>51448.733759000002</v>
       </c>
       <c r="BO22" s="1">
-        <v>14.291315</v>
+        <v>14.291315000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1264.620000</v>
+        <v>1264.6199999999999</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-577.427000</v>
+        <v>-577.42700000000002</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
         <v>51459.362684</v>
@@ -5831,75 +6247,75 @@
         <v>14.294267</v>
       </c>
       <c r="BU22" s="1">
-        <v>1412.640000</v>
+        <v>1412.64</v>
       </c>
       <c r="BV22" s="1">
-        <v>-803.644000</v>
+        <v>-803.64400000000001</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>51470.477341</v>
+        <v>51470.477340999998</v>
       </c>
       <c r="BY22" s="1">
         <v>14.297355</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1575.480000</v>
+        <v>1575.48</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1038.990000</v>
+        <v>-1038.99</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>51483.668443</v>
+        <v>51483.668443000002</v>
       </c>
       <c r="CD22" s="1">
         <v>14.301019</v>
       </c>
       <c r="CE22" s="1">
-        <v>1984.840000</v>
+        <v>1984.84</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1590.090000</v>
+        <v>-1590.09</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>51311.596349</v>
+        <v>51311.596348999999</v>
       </c>
       <c r="B23" s="1">
         <v>14.253221</v>
       </c>
       <c r="C23" s="1">
-        <v>903.103000</v>
+        <v>903.10299999999995</v>
       </c>
       <c r="D23" s="1">
-        <v>-174.780000</v>
+        <v>-174.78</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>51322.008376</v>
+        <v>51322.008375999998</v>
       </c>
       <c r="G23" s="1">
-        <v>14.256113</v>
+        <v>14.256112999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>917.009000</v>
+        <v>917.00900000000001</v>
       </c>
       <c r="I23" s="1">
-        <v>-150.670000</v>
+        <v>-150.66999999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>51332.524049</v>
@@ -5908,859 +6324,859 @@
         <v>14.259034</v>
       </c>
       <c r="M23" s="1">
-        <v>939.070000</v>
+        <v>939.07</v>
       </c>
       <c r="N23" s="1">
-        <v>-112.064000</v>
+        <v>-112.06399999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>51343.412227</v>
+        <v>51343.412227000001</v>
       </c>
       <c r="Q23" s="1">
-        <v>14.262059</v>
+        <v>14.262059000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>946.220000</v>
+        <v>946.22</v>
       </c>
       <c r="S23" s="1">
-        <v>-99.069800</v>
+        <v>-99.069800000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>51353.569303</v>
+        <v>51353.569302999997</v>
       </c>
       <c r="V23" s="1">
-        <v>14.264880</v>
+        <v>14.26488</v>
       </c>
       <c r="W23" s="1">
-        <v>953.490000</v>
+        <v>953.49</v>
       </c>
       <c r="X23" s="1">
-        <v>-87.403000</v>
+        <v>-87.403000000000006</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>51363.496730</v>
+        <v>51363.496729999999</v>
       </c>
       <c r="AA23" s="1">
         <v>14.267638</v>
       </c>
       <c r="AB23" s="1">
-        <v>961.798000</v>
+        <v>961.798</v>
       </c>
       <c r="AC23" s="1">
-        <v>-79.477800</v>
+        <v>-79.477800000000002</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>51373.608708</v>
       </c>
       <c r="AF23" s="1">
-        <v>14.270447</v>
+        <v>14.270447000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>967.519000</v>
+        <v>967.51900000000001</v>
       </c>
       <c r="AH23" s="1">
-        <v>-79.683200</v>
+        <v>-79.683199999999999</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>51384.084175</v>
+        <v>51384.084175000004</v>
       </c>
       <c r="AK23" s="1">
-        <v>14.273357</v>
+        <v>14.273357000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>975.711000</v>
+        <v>975.71100000000001</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.918000</v>
+        <v>-87.918000000000006</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>51394.295312</v>
+        <v>51394.295312000002</v>
       </c>
       <c r="AP23" s="1">
-        <v>14.276193</v>
+        <v>14.276192999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>985.166000</v>
+        <v>985.16600000000005</v>
       </c>
       <c r="AR23" s="1">
-        <v>-103.187000</v>
+        <v>-103.187</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>51405.075362</v>
+        <v>51405.075362000003</v>
       </c>
       <c r="AU23" s="1">
         <v>14.279188</v>
       </c>
       <c r="AV23" s="1">
-        <v>996.793000</v>
+        <v>996.79300000000001</v>
       </c>
       <c r="AW23" s="1">
-        <v>-125.020000</v>
+        <v>-125.02</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>51416.107413</v>
+        <v>51416.107412999998</v>
       </c>
       <c r="AZ23" s="1">
         <v>14.282252</v>
       </c>
       <c r="BA23" s="1">
-        <v>1006.580000</v>
+        <v>1006.58</v>
       </c>
       <c r="BB23" s="1">
-        <v>-143.927000</v>
+        <v>-143.92699999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>51427.173126</v>
+        <v>51427.173126000002</v>
       </c>
       <c r="BE23" s="1">
         <v>14.285326</v>
       </c>
       <c r="BF23" s="1">
-        <v>1052.390000</v>
+        <v>1052.3900000000001</v>
       </c>
       <c r="BG23" s="1">
-        <v>-229.343000</v>
+        <v>-229.34299999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>51438.066760</v>
+        <v>51438.066760000002</v>
       </c>
       <c r="BJ23" s="1">
         <v>14.288352</v>
       </c>
       <c r="BK23" s="1">
-        <v>1132.490000</v>
+        <v>1132.49</v>
       </c>
       <c r="BL23" s="1">
-        <v>-366.125000</v>
+        <v>-366.125</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>51449.130025</v>
+        <v>51449.130024999999</v>
       </c>
       <c r="BO23" s="1">
         <v>14.291425</v>
       </c>
       <c r="BP23" s="1">
-        <v>1264.650000</v>
+        <v>1264.6500000000001</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-577.401000</v>
+        <v>-577.40099999999995</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>51459.788058</v>
+        <v>51459.788057999998</v>
       </c>
       <c r="BT23" s="1">
-        <v>14.294386</v>
+        <v>14.294385999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>1412.630000</v>
+        <v>1412.63</v>
       </c>
       <c r="BV23" s="1">
-        <v>-803.566000</v>
+        <v>-803.56600000000003</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>51470.922251</v>
+        <v>51470.922251000004</v>
       </c>
       <c r="BY23" s="1">
         <v>14.297478</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1575.300000</v>
+        <v>1575.3</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1038.870000</v>
+        <v>-1038.8699999999999</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>51484.219033</v>
+        <v>51484.219033000001</v>
       </c>
       <c r="CD23" s="1">
-        <v>14.301172</v>
+        <v>14.301171999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>1986.990000</v>
+        <v>1986.99</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1590.860000</v>
+        <v>-1590.86</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>51311.936141</v>
+        <v>51311.936140999998</v>
       </c>
       <c r="B24" s="1">
         <v>14.253316</v>
       </c>
       <c r="C24" s="1">
-        <v>903.089000</v>
+        <v>903.08900000000006</v>
       </c>
       <c r="D24" s="1">
-        <v>-174.767000</v>
+        <v>-174.767</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>51322.360560</v>
+        <v>51322.360560000001</v>
       </c>
       <c r="G24" s="1">
         <v>14.256211</v>
       </c>
       <c r="H24" s="1">
-        <v>917.950000</v>
+        <v>917.95</v>
       </c>
       <c r="I24" s="1">
-        <v>-150.497000</v>
+        <v>-150.49700000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>51333.178769</v>
+        <v>51333.178768999998</v>
       </c>
       <c r="L24" s="1">
         <v>14.259216</v>
       </c>
       <c r="M24" s="1">
-        <v>939.020000</v>
+        <v>939.02</v>
       </c>
       <c r="N24" s="1">
-        <v>-111.925000</v>
+        <v>-111.925</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>51343.797650</v>
+        <v>51343.79765</v>
       </c>
       <c r="Q24" s="1">
-        <v>14.262166</v>
+        <v>14.262166000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>946.210000</v>
+        <v>946.21</v>
       </c>
       <c r="S24" s="1">
-        <v>-99.074900</v>
+        <v>-99.0749</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>51353.939318</v>
+        <v>51353.939317999997</v>
       </c>
       <c r="V24" s="1">
-        <v>14.264983</v>
+        <v>14.264983000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>953.553000</v>
+        <v>953.553</v>
       </c>
       <c r="X24" s="1">
-        <v>-87.389700</v>
+        <v>-87.389700000000005</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>51363.846936</v>
+        <v>51363.846936000002</v>
       </c>
       <c r="AA24" s="1">
         <v>14.267735</v>
       </c>
       <c r="AB24" s="1">
-        <v>961.830000</v>
+        <v>961.83</v>
       </c>
       <c r="AC24" s="1">
-        <v>-79.506400</v>
+        <v>-79.506399999999999</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>51373.955405</v>
+        <v>51373.955405000001</v>
       </c>
       <c r="AF24" s="1">
         <v>14.270543</v>
       </c>
       <c r="AG24" s="1">
-        <v>967.309000</v>
+        <v>967.30899999999997</v>
       </c>
       <c r="AH24" s="1">
-        <v>-79.757300</v>
+        <v>-79.757300000000001</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>51384.431870</v>
+        <v>51384.43187</v>
       </c>
       <c r="AK24" s="1">
         <v>14.273453</v>
       </c>
       <c r="AL24" s="1">
-        <v>975.671000</v>
+        <v>975.67100000000005</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.932900</v>
+        <v>-87.932900000000004</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>51394.722367</v>
+        <v>51394.722367000002</v>
       </c>
       <c r="AP24" s="1">
-        <v>14.276312</v>
+        <v>14.276312000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>985.171000</v>
+        <v>985.17100000000005</v>
       </c>
       <c r="AR24" s="1">
-        <v>-103.183000</v>
+        <v>-103.18300000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>51405.485553</v>
+        <v>51405.485552999999</v>
       </c>
       <c r="AU24" s="1">
-        <v>14.279302</v>
+        <v>14.279301999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>996.792000</v>
+        <v>996.79200000000003</v>
       </c>
       <c r="AW24" s="1">
-        <v>-125.029000</v>
+        <v>-125.029</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>51416.405531</v>
+        <v>51416.405530999997</v>
       </c>
       <c r="AZ24" s="1">
         <v>14.282335</v>
       </c>
       <c r="BA24" s="1">
-        <v>1006.570000</v>
+        <v>1006.57</v>
       </c>
       <c r="BB24" s="1">
-        <v>-143.928000</v>
+        <v>-143.928</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>51427.421620</v>
+        <v>51427.421620000001</v>
       </c>
       <c r="BE24" s="1">
-        <v>14.285395</v>
+        <v>14.285394999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1052.380000</v>
+        <v>1052.3800000000001</v>
       </c>
       <c r="BG24" s="1">
-        <v>-229.350000</v>
+        <v>-229.35</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>51438.449669</v>
+        <v>51438.449669000001</v>
       </c>
       <c r="BJ24" s="1">
         <v>14.288458</v>
       </c>
       <c r="BK24" s="1">
-        <v>1132.500000</v>
+        <v>1132.5</v>
       </c>
       <c r="BL24" s="1">
-        <v>-366.116000</v>
+        <v>-366.11599999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>51449.551166</v>
+        <v>51449.551165999997</v>
       </c>
       <c r="BO24" s="1">
         <v>14.291542</v>
       </c>
       <c r="BP24" s="1">
-        <v>1264.670000</v>
+        <v>1264.67</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-577.396000</v>
+        <v>-577.39599999999996</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>51460.203247</v>
+        <v>51460.203246999998</v>
       </c>
       <c r="BT24" s="1">
         <v>14.294501</v>
       </c>
       <c r="BU24" s="1">
-        <v>1412.560000</v>
+        <v>1412.56</v>
       </c>
       <c r="BV24" s="1">
-        <v>-803.519000</v>
+        <v>-803.51900000000001</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>51471.343386</v>
       </c>
       <c r="BY24" s="1">
-        <v>14.297595</v>
+        <v>14.297594999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1575.400000</v>
+        <v>1575.4</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1039.030000</v>
+        <v>-1039.03</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>51484.762120</v>
+        <v>51484.762119999999</v>
       </c>
       <c r="CD24" s="1">
         <v>14.301323</v>
       </c>
       <c r="CE24" s="1">
-        <v>1985.630000</v>
+        <v>1985.63</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1589.220000</v>
+        <v>-1589.22</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>51312.595292</v>
+        <v>51312.595291999998</v>
       </c>
       <c r="B25" s="1">
         <v>14.253499</v>
       </c>
       <c r="C25" s="1">
-        <v>903.028000</v>
+        <v>903.02800000000002</v>
       </c>
       <c r="D25" s="1">
-        <v>-174.718000</v>
+        <v>-174.71799999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>51323.012301</v>
+        <v>51323.012301000002</v>
       </c>
       <c r="G25" s="1">
         <v>14.256392</v>
       </c>
       <c r="H25" s="1">
-        <v>917.431000</v>
+        <v>917.43100000000004</v>
       </c>
       <c r="I25" s="1">
-        <v>-150.624000</v>
+        <v>-150.624</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>51333.561714</v>
+        <v>51333.561714000003</v>
       </c>
       <c r="L25" s="1">
         <v>14.259323</v>
       </c>
       <c r="M25" s="1">
-        <v>939.083000</v>
+        <v>939.08299999999997</v>
       </c>
       <c r="N25" s="1">
-        <v>-111.708000</v>
+        <v>-111.708</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>51344.143861</v>
+        <v>51344.143860999997</v>
       </c>
       <c r="Q25" s="1">
         <v>14.262262</v>
       </c>
       <c r="R25" s="1">
-        <v>946.221000</v>
+        <v>946.221</v>
       </c>
       <c r="S25" s="1">
-        <v>-99.051000</v>
+        <v>-99.051000000000002</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>51354.283045</v>
+        <v>51354.283044999996</v>
       </c>
       <c r="V25" s="1">
         <v>14.265079</v>
       </c>
       <c r="W25" s="1">
-        <v>953.673000</v>
+        <v>953.673</v>
       </c>
       <c r="X25" s="1">
-        <v>-87.388200</v>
+        <v>-87.388199999999998</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>51364.195593</v>
+        <v>51364.195592999997</v>
       </c>
       <c r="AA25" s="1">
         <v>14.267832</v>
       </c>
       <c r="AB25" s="1">
-        <v>961.848000</v>
+        <v>961.84799999999996</v>
       </c>
       <c r="AC25" s="1">
-        <v>-79.461200</v>
+        <v>-79.461200000000005</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>51374.303720</v>
+        <v>51374.303720000004</v>
       </c>
       <c r="AF25" s="1">
-        <v>14.270640</v>
+        <v>14.27064</v>
       </c>
       <c r="AG25" s="1">
-        <v>967.300000</v>
+        <v>967.3</v>
       </c>
       <c r="AH25" s="1">
-        <v>-79.566900</v>
+        <v>-79.566900000000004</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>51384.860909</v>
+        <v>51384.860909000003</v>
       </c>
       <c r="AK25" s="1">
         <v>14.273572</v>
       </c>
       <c r="AL25" s="1">
-        <v>975.661000</v>
+        <v>975.66099999999994</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.905800</v>
+        <v>-87.905799999999999</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>51395.012528</v>
+        <v>51395.012527999999</v>
       </c>
       <c r="AP25" s="1">
         <v>14.276392</v>
       </c>
       <c r="AQ25" s="1">
-        <v>985.157000</v>
+        <v>985.15700000000004</v>
       </c>
       <c r="AR25" s="1">
-        <v>-103.164000</v>
+        <v>-103.164</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>51405.805970</v>
+        <v>51405.805970000001</v>
       </c>
       <c r="AU25" s="1">
         <v>14.279391</v>
       </c>
       <c r="AV25" s="1">
-        <v>996.778000</v>
+        <v>996.77800000000002</v>
       </c>
       <c r="AW25" s="1">
-        <v>-125.010000</v>
+        <v>-125.01</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>51416.767586</v>
+        <v>51416.767586000002</v>
       </c>
       <c r="AZ25" s="1">
         <v>14.282435</v>
       </c>
       <c r="BA25" s="1">
-        <v>1006.580000</v>
+        <v>1006.58</v>
       </c>
       <c r="BB25" s="1">
-        <v>-143.967000</v>
+        <v>-143.96700000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>51427.783236</v>
+        <v>51427.783236000003</v>
       </c>
       <c r="BE25" s="1">
-        <v>14.285495</v>
+        <v>14.285494999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1052.390000</v>
+        <v>1052.3900000000001</v>
       </c>
       <c r="BG25" s="1">
-        <v>-229.340000</v>
+        <v>-229.34</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
         <v>51438.836549</v>
       </c>
       <c r="BJ25" s="1">
-        <v>14.288566</v>
+        <v>14.288565999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1132.480000</v>
+        <v>1132.48</v>
       </c>
       <c r="BL25" s="1">
-        <v>-366.128000</v>
+        <v>-366.12799999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>51449.966774</v>
       </c>
       <c r="BO25" s="1">
-        <v>14.291657</v>
+        <v>14.291657000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1264.670000</v>
+        <v>1264.67</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-577.419000</v>
+        <v>-577.41899999999998</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>51460.632248</v>
+        <v>51460.632248000002</v>
       </c>
       <c r="BT25" s="1">
-        <v>14.294620</v>
+        <v>14.29462</v>
       </c>
       <c r="BU25" s="1">
-        <v>1412.530000</v>
+        <v>1412.53</v>
       </c>
       <c r="BV25" s="1">
-        <v>-803.586000</v>
+        <v>-803.58600000000001</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>51471.768958</v>
+        <v>51471.768958000001</v>
       </c>
       <c r="BY25" s="1">
-        <v>14.297714</v>
+        <v>14.297713999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1575.310000</v>
+        <v>1575.31</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1038.900000</v>
+        <v>-1038.9000000000001</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>51485.300813</v>
+        <v>51485.300813000002</v>
       </c>
       <c r="CD25" s="1">
         <v>14.301472</v>
       </c>
       <c r="CE25" s="1">
-        <v>1985.520000</v>
+        <v>1985.52</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1591.040000</v>
+        <v>-1591.04</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>51312.959852</v>
       </c>
       <c r="B26" s="1">
-        <v>14.253600</v>
+        <v>14.2536</v>
       </c>
       <c r="C26" s="1">
-        <v>903.132000</v>
+        <v>903.13199999999995</v>
       </c>
       <c r="D26" s="1">
-        <v>-174.603000</v>
+        <v>-174.60300000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>51323.398692</v>
+        <v>51323.398692000002</v>
       </c>
       <c r="G26" s="1">
-        <v>14.256500</v>
+        <v>14.256500000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>917.759000</v>
+        <v>917.75900000000001</v>
       </c>
       <c r="I26" s="1">
-        <v>-150.400000</v>
+        <v>-150.4</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>51333.905935</v>
+        <v>51333.905935000003</v>
       </c>
       <c r="L26" s="1">
         <v>14.259418</v>
       </c>
       <c r="M26" s="1">
-        <v>939.116000</v>
+        <v>939.11599999999999</v>
       </c>
       <c r="N26" s="1">
-        <v>-111.813000</v>
+        <v>-111.813</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>51344.491522</v>
+        <v>51344.491521999997</v>
       </c>
       <c r="Q26" s="1">
         <v>14.262359</v>
       </c>
       <c r="R26" s="1">
-        <v>946.247000</v>
+        <v>946.24699999999996</v>
       </c>
       <c r="S26" s="1">
-        <v>-99.053100</v>
+        <v>-99.053100000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>51354.632261</v>
+        <v>51354.632260999999</v>
       </c>
       <c r="V26" s="1">
         <v>14.265176</v>
       </c>
       <c r="W26" s="1">
-        <v>953.577000</v>
+        <v>953.577</v>
       </c>
       <c r="X26" s="1">
-        <v>-87.391200</v>
+        <v>-87.391199999999998</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>51364.621308</v>
+        <v>51364.621308000002</v>
       </c>
       <c r="AA26" s="1">
-        <v>14.267950</v>
+        <v>14.267950000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>961.785000</v>
+        <v>961.78499999999997</v>
       </c>
       <c r="AC26" s="1">
-        <v>-79.529400</v>
+        <v>-79.529399999999995</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>51374.715738</v>
+        <v>51374.715737999999</v>
       </c>
       <c r="AF26" s="1">
         <v>14.270754</v>
       </c>
       <c r="AG26" s="1">
-        <v>967.305000</v>
+        <v>967.30499999999995</v>
       </c>
       <c r="AH26" s="1">
-        <v>-79.650300</v>
+        <v>-79.650300000000001</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>51385.131260</v>
+        <v>51385.131260000002</v>
       </c>
       <c r="AK26" s="1">
         <v>14.273648</v>
       </c>
       <c r="AL26" s="1">
-        <v>975.682000</v>
+        <v>975.68200000000002</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.904000</v>
+        <v>-87.903999999999996</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>51395.373151</v>
@@ -6769,135 +7185,136 @@
         <v>14.276493</v>
       </c>
       <c r="AQ26" s="1">
-        <v>985.176000</v>
+        <v>985.17600000000004</v>
       </c>
       <c r="AR26" s="1">
-        <v>-103.185000</v>
+        <v>-103.185</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>51406.169072</v>
+        <v>51406.169071999997</v>
       </c>
       <c r="AU26" s="1">
         <v>14.279491</v>
       </c>
       <c r="AV26" s="1">
-        <v>996.787000</v>
+        <v>996.78700000000003</v>
       </c>
       <c r="AW26" s="1">
-        <v>-125.030000</v>
+        <v>-125.03</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>51417.123719</v>
+        <v>51417.123719000003</v>
       </c>
       <c r="AZ26" s="1">
         <v>14.282534</v>
       </c>
       <c r="BA26" s="1">
-        <v>1006.570000</v>
+        <v>1006.57</v>
       </c>
       <c r="BB26" s="1">
-        <v>-143.952000</v>
+        <v>-143.952</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>51428.505876</v>
+        <v>51428.505876000003</v>
       </c>
       <c r="BE26" s="1">
         <v>14.285696</v>
       </c>
       <c r="BF26" s="1">
-        <v>1052.400000</v>
+        <v>1052.4000000000001</v>
       </c>
       <c r="BG26" s="1">
-        <v>-229.325000</v>
+        <v>-229.32499999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>51439.590500</v>
+        <v>51439.590499999998</v>
       </c>
       <c r="BJ26" s="1">
-        <v>14.288775</v>
+        <v>14.288774999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1132.480000</v>
+        <v>1132.48</v>
       </c>
       <c r="BL26" s="1">
-        <v>-366.113000</v>
+        <v>-366.113</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>51450.368038</v>
+        <v>51450.368038000001</v>
       </c>
       <c r="BO26" s="1">
         <v>14.291769</v>
       </c>
       <c r="BP26" s="1">
-        <v>1264.630000</v>
+        <v>1264.6300000000001</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-577.420000</v>
+        <v>-577.41999999999996</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>51461.061288</v>
+        <v>51461.061287999997</v>
       </c>
       <c r="BT26" s="1">
         <v>14.294739</v>
       </c>
       <c r="BU26" s="1">
-        <v>1412.540000</v>
+        <v>1412.54</v>
       </c>
       <c r="BV26" s="1">
-        <v>-803.552000</v>
+        <v>-803.55200000000002</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>51472.216341</v>
+        <v>51472.216340999999</v>
       </c>
       <c r="BY26" s="1">
         <v>14.297838</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1575.530000</v>
+        <v>1575.53</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1038.960000</v>
+        <v>-1038.96</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>51486.148470</v>
+        <v>51486.14847</v>
       </c>
       <c r="CD26" s="1">
         <v>14.301708</v>
       </c>
       <c r="CE26" s="1">
-        <v>1985.170000</v>
+        <v>1985.17</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1589.510000</v>
+        <v>-1589.51</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>